--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1022"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22691,10 +22691,8 @@
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -22739,10 +22737,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22773,10 +22769,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22811,10 +22805,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -22849,10 +22841,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22887,10 +22877,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -22913,10 +22901,8 @@
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -22951,10 +22937,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -22985,10 +22969,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23019,10 +23001,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23049,10 +23029,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23079,10 +23057,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23109,10 +23085,8 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -23147,10 +23121,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -23181,10 +23153,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23215,10 +23185,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23249,10 +23217,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23279,10 +23245,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23309,10 +23273,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23339,10 +23301,8 @@
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23373,10 +23333,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23403,10 +23361,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23433,10 +23389,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23459,10 +23413,8 @@
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23489,10 +23441,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23519,10 +23469,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23549,10 +23497,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23583,10 +23529,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23613,10 +23557,8 @@
         </is>
       </c>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23647,10 +23589,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23681,10 +23621,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23707,10 +23645,8 @@
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23729,10 +23665,8 @@
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -23781,10 +23715,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -23811,10 +23743,8 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -23841,10 +23771,8 @@
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H705" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -23879,10 +23807,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="707">
@@ -23917,10 +23843,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23951,10 +23875,8 @@
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23985,10 +23907,8 @@
         </is>
       </c>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -24015,10 +23935,8 @@
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24053,10 +23971,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24087,10 +24003,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24117,10 +24031,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24147,10 +24059,8 @@
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24181,10 +24091,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24215,10 +24123,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24253,10 +24159,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24287,10 +24191,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -24313,10 +24215,8 @@
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24347,10 +24247,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24373,10 +24271,8 @@
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
       <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24411,10 +24307,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -24445,10 +24339,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24475,10 +24367,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24505,10 +24395,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24535,10 +24423,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24565,10 +24451,8 @@
       </c>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24591,10 +24475,8 @@
       <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24629,10 +24511,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24663,10 +24543,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -24701,10 +24579,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H731" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -24739,10 +24615,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -24777,10 +24651,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24811,10 +24683,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24845,10 +24715,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24879,10 +24747,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24917,10 +24783,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24947,10 +24811,8 @@
       </c>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24973,10 +24835,8 @@
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
       <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -25011,10 +24871,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -25041,10 +24899,8 @@
       </c>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25067,10 +24923,8 @@
       </c>
       <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr"/>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -25115,10 +24969,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25149,10 +25001,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -25175,10 +25025,8 @@
       <c r="E746" t="inlineStr"/>
       <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr"/>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -25209,10 +25057,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25243,10 +25089,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -25273,10 +25117,8 @@
       </c>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -25307,10 +25149,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25333,10 +25173,8 @@
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="inlineStr"/>
       <c r="G751" t="inlineStr"/>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25371,10 +25209,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -25405,10 +25241,8 @@
         </is>
       </c>
       <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25439,10 +25273,8 @@
         </is>
       </c>
       <c r="G754" t="inlineStr"/>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25477,10 +25309,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -25515,10 +25345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25549,10 +25377,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25587,10 +25413,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H758" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -25625,10 +25449,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25659,10 +25481,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -25693,10 +25513,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25727,10 +25545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25761,10 +25577,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25799,10 +25613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25833,10 +25645,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25871,10 +25681,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25905,10 +25713,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25939,10 +25745,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25977,10 +25781,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26011,10 +25813,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -26045,10 +25845,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -26079,10 +25877,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -26113,10 +25909,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -26151,10 +25945,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -26189,10 +25981,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -26227,10 +26017,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26265,10 +26053,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26291,10 +26077,8 @@
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26329,10 +26113,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -26367,10 +26149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26405,10 +26185,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26443,10 +26221,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26481,10 +26257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26507,10 +26281,8 @@
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -26545,10 +26317,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -26583,10 +26353,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -26621,10 +26389,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26651,10 +26417,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26681,10 +26445,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26715,10 +26477,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26749,10 +26509,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -26779,10 +26537,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -26809,10 +26565,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26839,10 +26593,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26869,10 +26621,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26899,10 +26649,8 @@
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26937,10 +26685,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26967,10 +26713,8 @@
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -27005,10 +26749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -27043,10 +26785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -27081,10 +26821,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -27119,10 +26857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -27157,10 +26893,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H803" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -27191,10 +26925,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -27225,10 +26957,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27263,10 +26993,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27289,10 +27017,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27315,10 +27041,8 @@
       <c r="E808" t="inlineStr"/>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27345,10 +27069,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27375,10 +27097,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -27405,10 +27125,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27435,10 +27153,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27465,10 +27181,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27495,10 +27209,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27525,10 +27237,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27555,10 +27265,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27585,10 +27293,8 @@
       </c>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27623,10 +27329,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -27661,10 +27365,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27687,10 +27389,8 @@
       <c r="E820" t="inlineStr"/>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -27717,10 +27417,8 @@
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27751,10 +27449,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="823">
@@ -27781,10 +27477,8 @@
       </c>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27807,10 +27501,8 @@
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27833,10 +27525,8 @@
       <c r="E825" t="inlineStr"/>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27859,10 +27549,8 @@
       </c>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27889,10 +27577,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27919,10 +27605,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27949,10 +27633,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27975,10 +27657,8 @@
       </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -27997,10 +27677,8 @@
       <c r="E831" t="inlineStr"/>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -28027,10 +27705,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28057,10 +27733,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28087,10 +27761,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -28127,10 +27799,8 @@
       <c r="E836" t="inlineStr"/>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -28161,10 +27831,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -28195,10 +27863,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28233,10 +27899,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -28271,10 +27935,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -28309,10 +27971,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H841" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -28347,10 +28007,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28377,10 +28035,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28407,10 +28063,8 @@
       </c>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28445,10 +28099,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28483,10 +28135,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -28513,10 +28163,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28543,10 +28191,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28573,10 +28219,8 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28611,10 +28255,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28649,10 +28291,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28687,10 +28327,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28725,10 +28363,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28763,10 +28399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -28797,10 +28431,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -28835,10 +28467,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28873,10 +28503,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28907,10 +28535,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28945,10 +28571,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28983,10 +28607,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -29017,10 +28639,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29051,10 +28671,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29089,10 +28707,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29127,10 +28743,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -29165,10 +28779,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -29203,10 +28815,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29241,10 +28851,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -29279,10 +28887,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29317,10 +28923,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29343,10 +28947,8 @@
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29373,10 +28975,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29399,10 +28999,8 @@
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29429,10 +29027,8 @@
       </c>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29467,10 +29063,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -29497,10 +29091,8 @@
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29531,10 +29123,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29557,10 +29147,8 @@
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="878">
@@ -29591,10 +29179,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29629,10 +29215,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -29667,10 +29251,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -29701,10 +29283,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -29739,10 +29319,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29777,10 +29355,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29815,10 +29391,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29853,10 +29427,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -29887,10 +29459,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29921,10 +29491,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29955,10 +29523,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29989,10 +29555,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -30019,10 +29583,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30049,10 +29611,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30079,10 +29639,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -30109,10 +29667,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -30139,10 +29695,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -30173,10 +29727,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -30207,10 +29759,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -30245,10 +29795,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -30283,10 +29831,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -30321,10 +29867,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -30351,10 +29895,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -30381,10 +29923,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30411,10 +29951,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30441,10 +29979,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30471,10 +30007,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -30497,110 +30031,148 @@
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr"/>
-      <c r="C906" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr"/>
-      <c r="F906" t="inlineStr"/>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr"/>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
           <t>3</t>
@@ -30610,29 +30182,33 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30644,33 +30220,33 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
@@ -30682,25 +30258,21 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E912" t="inlineStr"/>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
@@ -30712,65 +30284,57 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
           <t>3</t>
@@ -30780,363 +30344,327 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -31148,29 +30676,33 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -31182,29 +30714,29 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -31216,29 +30748,29 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
@@ -31250,31 +30782,31 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F928" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G928" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -31284,107 +30816,83 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -31394,97 +30902,69 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr"/>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr"/>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
@@ -31496,31 +30976,27 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -31530,169 +31006,165 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr"/>
@@ -31706,139 +31178,131 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F943" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31850,71 +31314,63 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F947" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H947" t="inlineStr">
@@ -31926,31 +31382,27 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31960,31 +31412,23 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -31994,31 +31438,23 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
@@ -32028,23 +31464,23 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
@@ -32058,27 +31494,31 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H952" t="inlineStr">
         <is>
           <t>3</t>
@@ -32086,23 +31526,23 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr"/>
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
@@ -32114,101 +31554,109 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B954" t="inlineStr"/>
-      <c r="C954" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr"/>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E956" t="inlineStr"/>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -32218,91 +31666,87 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B958" t="inlineStr"/>
-      <c r="C958" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
           <t>CN</t>
@@ -32310,77 +31754,73 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -32388,35 +31828,27 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A964" t="inlineStr"/>
       <c r="B964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H964" t="inlineStr">
@@ -32428,61 +31860,45 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr"/>
+      <c r="C965" t="inlineStr"/>
       <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E965" t="inlineStr"/>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr"/>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H966" t="inlineStr">
         <is>
           <t>3</t>
@@ -32492,12 +31908,12 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -32506,32 +31922,28 @@
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E967" t="inlineStr"/>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -32542,13 +31954,13 @@
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
       <c r="G968" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H968" t="inlineStr">
@@ -32560,31 +31972,27 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32594,25 +32002,21 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
@@ -32624,17 +32028,17 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
@@ -32650,139 +32054,159 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr"/>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F972" t="inlineStr"/>
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
           <t>3</t>
@@ -32792,23 +32216,31 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
           <t>3</t>
@@ -32818,57 +32250,61 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32878,31 +32314,27 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32910,19 +32342,27 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr"/>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
@@ -32932,137 +32372,145 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
       <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="inlineStr"/>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="985">
-      <c r="A985" t="inlineStr"/>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
           <t>3</t>
@@ -33072,139 +32520,163 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr"/>
-      <c r="C987" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr"/>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr"/>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
       <c r="E988" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
       <c r="E991" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>3</t>
@@ -33214,23 +32686,31 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H992" t="inlineStr">
         <is>
           <t>3</t>
@@ -33240,23 +32720,27 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H993" t="inlineStr">
         <is>
           <t>3</t>
@@ -33266,159 +32750,123 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E994" t="inlineStr"/>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
       <c r="H994" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E995" t="inlineStr"/>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G995" t="inlineStr"/>
       <c r="H995" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E996" t="inlineStr"/>
       <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
       <c r="H997" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A998" t="inlineStr"/>
       <c r="B998" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G998" t="inlineStr"/>
       <c r="H998" t="inlineStr">
         <is>
           <t>3</t>
@@ -33428,706 +32876,72 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr"/>
+      <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E999" t="inlineStr"/>
       <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr"/>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E1001" t="inlineStr"/>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
       <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr"/>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1019" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr"/>
-      <c r="B1020" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1020" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1020" t="inlineStr"/>
-      <c r="E1020" t="inlineStr"/>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr"/>
-      <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
-      <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1022" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1022" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1022" t="inlineStr"/>
-      <c r="E1022" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1022" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1022"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22723,10 +22723,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -22757,10 +22755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22795,10 +22791,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H671" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -22833,10 +22827,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -22871,10 +22863,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22897,10 +22887,8 @@
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -22935,10 +22923,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -22969,10 +22955,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -23003,10 +22987,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23033,10 +23015,8 @@
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23063,10 +23043,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23093,10 +23071,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23131,10 +23107,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H681" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -23165,10 +23139,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="683">
@@ -23199,10 +23171,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23233,10 +23203,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23263,10 +23231,8 @@
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23293,10 +23259,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23323,10 +23287,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23357,10 +23319,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23387,10 +23347,8 @@
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23417,10 +23375,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23443,10 +23399,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23473,10 +23427,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23503,10 +23455,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23533,10 +23483,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23567,10 +23515,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23597,10 +23543,8 @@
         </is>
       </c>
       <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23631,10 +23575,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23665,10 +23607,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23691,10 +23631,8 @@
       </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23713,10 +23651,8 @@
       <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23765,10 +23701,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -23795,10 +23729,8 @@
       </c>
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -23825,10 +23757,8 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -23863,10 +23793,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="706">
@@ -23901,10 +23829,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23935,10 +23861,8 @@
         </is>
       </c>
       <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23969,10 +23893,8 @@
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23999,10 +23921,8 @@
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -24037,10 +23957,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24071,10 +23989,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24101,10 +24017,8 @@
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24131,10 +24045,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24165,10 +24077,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24199,10 +24109,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24237,10 +24145,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24271,10 +24177,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24297,10 +24201,8 @@
       <c r="E718" t="inlineStr"/>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -24331,10 +24233,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24357,10 +24257,8 @@
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24395,10 +24293,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="722">
@@ -24429,10 +24325,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -24459,10 +24353,8 @@
       </c>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24489,10 +24381,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24519,10 +24409,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24549,10 +24437,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24575,10 +24461,8 @@
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24613,10 +24497,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24647,10 +24529,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24685,10 +24565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H730" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -24723,10 +24601,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -24761,10 +24637,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24795,10 +24669,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24829,10 +24701,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24863,10 +24733,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24901,10 +24769,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24931,10 +24797,8 @@
       </c>
       <c r="F737" t="inlineStr"/>
       <c r="G737" t="inlineStr"/>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24957,10 +24821,8 @@
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -24995,10 +24857,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -25025,10 +24885,8 @@
       </c>
       <c r="F740" t="inlineStr"/>
       <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -25051,10 +24909,8 @@
       </c>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25099,10 +24955,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -25133,10 +24987,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25159,10 +25011,8 @@
       <c r="E745" t="inlineStr"/>
       <c r="F745" t="inlineStr"/>
       <c r="G745" t="inlineStr"/>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -25193,10 +25043,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -25227,10 +25075,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25257,10 +25103,8 @@
       </c>
       <c r="F748" t="inlineStr"/>
       <c r="G748" t="inlineStr"/>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -25291,10 +25135,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -25317,10 +25159,8 @@
       <c r="E750" t="inlineStr"/>
       <c r="F750" t="inlineStr"/>
       <c r="G750" t="inlineStr"/>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25355,10 +25195,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="752">
@@ -25389,10 +25227,8 @@
         </is>
       </c>
       <c r="G752" t="inlineStr"/>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -25423,10 +25259,8 @@
         </is>
       </c>
       <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25461,10 +25295,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25499,10 +25331,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -25533,10 +25363,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25571,10 +25399,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H757" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -25609,10 +25435,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -25643,10 +25467,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25677,10 +25499,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25711,10 +25531,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25745,10 +25563,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25783,10 +25599,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25817,10 +25631,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25855,10 +25667,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25889,10 +25699,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25923,10 +25731,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25961,10 +25767,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25995,10 +25799,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26029,10 +25831,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -26063,10 +25863,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -26097,10 +25895,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -26135,10 +25931,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="774">
@@ -26173,10 +25967,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -26211,10 +26003,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -26249,10 +26039,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26275,10 +26063,8 @@
       <c r="E777" t="inlineStr"/>
       <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr"/>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26313,10 +26099,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26351,10 +26135,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -26389,10 +26171,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26427,10 +26207,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26465,10 +26243,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26491,10 +26267,8 @@
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -26529,10 +26303,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H784" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -26567,10 +26339,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -26605,10 +26375,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -26635,10 +26403,8 @@
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26665,10 +26431,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26699,10 +26463,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26733,10 +26495,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26763,10 +26523,8 @@
       </c>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -26793,10 +26551,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -26823,10 +26579,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26853,10 +26607,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26883,10 +26635,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26921,10 +26671,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26951,10 +26699,8 @@
       </c>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26989,10 +26735,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -27027,10 +26771,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H799" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -27065,10 +26807,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -27103,10 +26843,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -27141,10 +26879,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -27175,10 +26911,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="804">
@@ -27209,10 +26943,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -27247,10 +26979,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27273,10 +27003,8 @@
       <c r="E806" t="inlineStr"/>
       <c r="F806" t="inlineStr"/>
       <c r="G806" t="inlineStr"/>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27299,10 +27027,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27329,10 +27055,8 @@
       </c>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27359,10 +27083,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27389,10 +27111,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27419,10 +27139,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27449,10 +27167,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27479,10 +27195,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27509,10 +27223,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27539,10 +27251,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27569,10 +27279,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27607,10 +27315,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -27645,10 +27351,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -27671,10 +27375,8 @@
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27701,10 +27403,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27735,10 +27435,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -27765,10 +27463,8 @@
       </c>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27791,10 +27487,8 @@
       <c r="E823" t="inlineStr"/>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -27817,10 +27511,8 @@
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27843,10 +27535,8 @@
       </c>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27873,10 +27563,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27903,10 +27591,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27933,10 +27619,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27959,10 +27643,8 @@
       </c>
       <c r="F829" t="inlineStr"/>
       <c r="G829" t="inlineStr"/>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27981,10 +27663,8 @@
       <c r="E830" t="inlineStr"/>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -28011,10 +27691,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -28041,10 +27719,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28071,10 +27747,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28111,10 +27785,8 @@
       <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -28145,10 +27817,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -28179,10 +27849,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -28217,10 +27885,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28255,10 +27921,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -28293,10 +27957,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H840" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -28331,10 +27993,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -28361,10 +28021,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28391,10 +28049,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28429,10 +28085,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28467,10 +28121,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -28497,10 +28149,8 @@
       </c>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28527,10 +28177,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28557,10 +28205,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28595,10 +28241,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -28633,10 +28277,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28671,10 +28313,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28709,10 +28349,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28747,10 +28385,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -28781,10 +28417,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -28819,10 +28453,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28857,10 +28489,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28891,10 +28521,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28929,10 +28557,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28967,10 +28593,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -29001,10 +28625,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -29035,10 +28657,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29073,10 +28693,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29111,10 +28729,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29149,10 +28765,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="865">
@@ -29187,10 +28801,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -29225,10 +28837,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29263,10 +28873,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -29301,10 +28909,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29327,10 +28933,8 @@
       <c r="E869" t="inlineStr"/>
       <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29357,10 +28961,8 @@
       </c>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29383,10 +28985,8 @@
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29413,10 +29013,8 @@
       </c>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29451,10 +29049,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -29481,10 +29077,8 @@
       </c>
       <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29515,10 +29109,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29541,10 +29133,8 @@
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="877">
@@ -29575,10 +29165,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29613,10 +29201,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -29651,10 +29237,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -29685,10 +29269,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="881">
@@ -29723,10 +29305,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -29761,10 +29341,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29799,10 +29377,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29837,10 +29413,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29871,10 +29445,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29905,10 +29477,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29939,10 +29509,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29973,10 +29541,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -30003,10 +29569,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -30033,10 +29597,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30063,10 +29625,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30093,10 +29653,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -30123,10 +29681,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -30157,10 +29713,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -30191,10 +29745,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -30229,10 +29781,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H896" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="897">
@@ -30267,10 +29817,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -30305,10 +29853,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -30335,10 +29881,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -30365,10 +29909,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -30395,10 +29937,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30425,10 +29965,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30455,10 +29993,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30481,110 +30017,148 @@
       <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr"/>
-      <c r="C905" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
-      <c r="F905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr"/>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
           <t>3</t>
@@ -30594,29 +30168,33 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H909" t="inlineStr">
@@ -30628,33 +30206,33 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30666,25 +30244,21 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
@@ -30696,65 +30270,57 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
           <t>3</t>
@@ -30764,363 +30330,327 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F914" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F922" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
@@ -31132,29 +30662,33 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -31166,29 +30700,29 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -31200,29 +30734,29 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -31234,31 +30768,31 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F927" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G927" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H927" t="inlineStr">
         <is>
           <t>3</t>
@@ -31268,107 +30802,83 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A930" t="inlineStr"/>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
           <t>3</t>
@@ -31378,97 +30888,69 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+      <c r="C931" t="inlineStr"/>
       <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E931" t="inlineStr"/>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
@@ -31480,31 +30962,27 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -31514,169 +30992,165 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr"/>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
@@ -31690,139 +31164,131 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F942" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
@@ -31834,71 +31300,63 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F945" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
@@ -31910,31 +31368,27 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31944,31 +31398,23 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E948" t="inlineStr"/>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31978,31 +31424,23 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -32012,23 +31450,23 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
@@ -32042,27 +31480,31 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -32070,23 +31512,23 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr"/>
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
@@ -32098,101 +31540,109 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B953" t="inlineStr"/>
-      <c r="C953" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr"/>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
       <c r="H954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -32202,91 +31652,87 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B957" t="inlineStr"/>
-      <c r="C957" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr"/>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A958" t="inlineStr"/>
       <c r="B958" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
           <t>CN</t>
@@ -32294,77 +31740,73 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E961" t="inlineStr"/>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
       <c r="E962" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
@@ -32372,35 +31814,27 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F963" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F963" t="inlineStr"/>
       <c r="G963" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H963" t="inlineStr">
@@ -32412,61 +31846,45 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr"/>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H965" t="inlineStr">
         <is>
           <t>3</t>
@@ -32476,12 +31894,12 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -32490,32 +31908,28 @@
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -32526,13 +31940,13 @@
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
@@ -32544,31 +31958,27 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -32578,25 +31988,21 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E969" t="inlineStr"/>
       <c r="F969" t="inlineStr"/>
       <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
@@ -32608,17 +32014,17 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
@@ -32634,139 +32040,159 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
       <c r="E972" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr"/>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
       <c r="G973" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr"/>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H975" t="inlineStr">
         <is>
           <t>3</t>
@@ -32776,23 +32202,31 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
           <t>3</t>
@@ -32802,57 +32236,61 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
       <c r="E978" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
           <t>3</t>
@@ -32862,31 +32300,27 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32894,19 +32328,27 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr"/>
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr"/>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F980" t="inlineStr"/>
       <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
@@ -32916,137 +32358,145 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
       <c r="E981" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="983">
-      <c r="A983" t="inlineStr"/>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr"/>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H983" t="inlineStr">
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr"/>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="inlineStr"/>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
       <c r="E985" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G985" t="inlineStr"/>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -33056,139 +32506,163 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr"/>
-      <c r="C986" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr"/>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
       <c r="E987" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr"/>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
       <c r="E989" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H990" t="inlineStr">
         <is>
           <t>3</t>
@@ -33198,23 +32672,31 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr"/>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>3</t>
@@ -33224,23 +32706,27 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
       <c r="E992" t="inlineStr"/>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H992" t="inlineStr">
         <is>
           <t>3</t>
@@ -33250,159 +32736,123 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
       <c r="H993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E994" t="inlineStr"/>
       <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G994" t="inlineStr"/>
       <c r="H994" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E995" t="inlineStr"/>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G995" t="inlineStr"/>
       <c r="H995" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E996" t="inlineStr"/>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A997" t="inlineStr"/>
       <c r="B997" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G997" t="inlineStr"/>
       <c r="H997" t="inlineStr">
         <is>
           <t>3</t>
@@ -33412,732 +32862,72 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr"/>
+      <c r="C998" t="inlineStr"/>
       <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D999" t="inlineStr"/>
       <c r="E999" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E1000" t="inlineStr"/>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
       <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr"/>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr"/>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr"/>
-      <c r="B1019" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1020" t="inlineStr"/>
-      <c r="C1020" t="inlineStr"/>
-      <c r="D1020" t="inlineStr"/>
-      <c r="E1020" t="inlineStr"/>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1021" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1021" t="inlineStr"/>
-      <c r="E1021" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1022" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1022" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1022" t="inlineStr"/>
-      <c r="E1022" t="inlineStr"/>
-      <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30049,10 +30049,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -30083,10 +30081,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -30121,10 +30117,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -30159,10 +30153,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -30197,10 +30189,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -30235,10 +30225,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -30261,10 +30249,8 @@
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -30295,10 +30281,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -30321,10 +30305,8 @@
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -30351,10 +30333,8 @@
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -30381,10 +30361,8 @@
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -30411,10 +30389,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30441,10 +30417,8 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30471,10 +30445,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30509,10 +30481,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H919" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -30547,10 +30517,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H920" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -30581,10 +30549,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="922">
@@ -30615,10 +30581,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H922" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -30653,10 +30617,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -30691,10 +30653,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30725,10 +30685,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30759,10 +30717,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30793,10 +30749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30823,10 +30777,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30853,10 +30805,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30879,10 +30829,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30923,10 +30871,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H932" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="933">
@@ -30953,10 +30899,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30983,100 +30927,94 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr"/>
-      <c r="C935" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr"/>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr"/>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A937" t="inlineStr"/>
       <c r="B937" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31084,77 +31022,73 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A939" t="inlineStr"/>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A940" t="inlineStr"/>
       <c r="B940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31162,35 +31096,27 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A941" t="inlineStr"/>
       <c r="B941" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
@@ -31202,61 +31128,45 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H943" t="inlineStr">
         <is>
           <t>3</t>
@@ -31266,12 +31176,12 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -31280,32 +31190,28 @@
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -31316,13 +31222,13 @@
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31334,31 +31240,27 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31368,25 +31270,21 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
@@ -31398,17 +31296,17 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
@@ -31424,139 +31322,159 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
       <c r="G951" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr"/>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -31566,23 +31484,31 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H954" t="inlineStr">
         <is>
           <t>3</t>
@@ -31592,57 +31518,61 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31652,31 +31582,27 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31684,19 +31610,27 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr"/>
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
@@ -31706,137 +31640,145 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr"/>
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="961">
-      <c r="A961" t="inlineStr"/>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H961" t="inlineStr">
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" t="inlineStr"/>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31846,139 +31788,163 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr"/>
-      <c r="C964" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr"/>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31988,23 +31954,31 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr"/>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32014,23 +31988,27 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H970" t="inlineStr">
         <is>
           <t>3</t>
@@ -32040,159 +32018,123 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E971" t="inlineStr"/>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E972" t="inlineStr"/>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E973" t="inlineStr"/>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E974" t="inlineStr"/>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A975" t="inlineStr"/>
       <c r="B975" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
           <t>3</t>
@@ -32202,732 +32144,72 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr"/>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E976" t="inlineStr"/>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E978" t="inlineStr"/>
       <c r="F978" t="inlineStr"/>
       <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B979" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr"/>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr"/>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr"/>
-      <c r="C998" t="inlineStr"/>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr"/>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1023"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22691,10 +22691,8 @@
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -22739,10 +22737,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22773,10 +22769,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22811,10 +22805,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -22849,10 +22841,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22887,10 +22877,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -22913,10 +22901,8 @@
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -22951,10 +22937,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -22985,10 +22969,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23019,10 +23001,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23049,10 +23029,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23079,10 +23057,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23109,10 +23085,8 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -23147,10 +23121,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -23181,10 +23153,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23215,10 +23185,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23249,10 +23217,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23279,10 +23245,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23309,10 +23273,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23339,10 +23301,8 @@
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23373,10 +23333,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23403,10 +23361,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23433,10 +23389,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23459,10 +23413,8 @@
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23489,10 +23441,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23519,10 +23469,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23549,10 +23497,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23583,10 +23529,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23613,10 +23557,8 @@
         </is>
       </c>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23647,10 +23589,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23681,10 +23621,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23707,10 +23645,8 @@
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23729,10 +23665,8 @@
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -23781,10 +23715,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -23811,10 +23743,8 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -23841,10 +23771,8 @@
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H705" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -23879,10 +23807,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="707">
@@ -23917,10 +23843,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23951,10 +23875,8 @@
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23985,10 +23907,8 @@
         </is>
       </c>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -24015,10 +23935,8 @@
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24053,10 +23971,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24087,10 +24003,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24117,10 +24031,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24147,10 +24059,8 @@
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24181,10 +24091,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24215,10 +24123,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24253,10 +24159,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24287,10 +24191,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -24313,10 +24215,8 @@
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24347,10 +24247,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24373,10 +24271,8 @@
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
       <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24411,10 +24307,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -24445,10 +24339,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24475,10 +24367,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24505,10 +24395,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24535,10 +24423,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24565,10 +24451,8 @@
       </c>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24591,10 +24475,8 @@
       <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24629,10 +24511,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24663,10 +24543,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -24701,10 +24579,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H731" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -24739,10 +24615,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -24777,10 +24651,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24811,10 +24683,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24845,10 +24715,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24879,10 +24747,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24917,10 +24783,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24947,10 +24811,8 @@
       </c>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24973,10 +24835,8 @@
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
       <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -25011,10 +24871,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -25041,10 +24899,8 @@
       </c>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25067,10 +24923,8 @@
       </c>
       <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr"/>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -25115,10 +24969,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25149,10 +25001,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -25175,10 +25025,8 @@
       <c r="E746" t="inlineStr"/>
       <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr"/>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -25209,10 +25057,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25243,10 +25089,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -25273,10 +25117,8 @@
       </c>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -25307,10 +25149,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25333,10 +25173,8 @@
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="inlineStr"/>
       <c r="G751" t="inlineStr"/>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25371,10 +25209,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -25405,10 +25241,8 @@
         </is>
       </c>
       <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25439,10 +25273,8 @@
         </is>
       </c>
       <c r="G754" t="inlineStr"/>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25477,10 +25309,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -25515,10 +25345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25549,10 +25377,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25587,10 +25413,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H758" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -25625,10 +25449,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25659,10 +25481,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -25693,10 +25513,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25727,10 +25545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25761,10 +25577,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25799,10 +25613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25833,10 +25645,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25871,10 +25681,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25905,10 +25713,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25939,10 +25745,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25977,10 +25781,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26011,10 +25813,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -26045,10 +25845,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -26079,10 +25877,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -26113,10 +25909,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -26151,10 +25945,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -26189,10 +25981,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -26227,10 +26017,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26265,10 +26053,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26291,10 +26077,8 @@
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26329,10 +26113,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -26367,10 +26149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26405,10 +26185,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26443,10 +26221,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26481,10 +26257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26507,10 +26281,8 @@
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -26545,10 +26317,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -26583,10 +26353,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -26621,10 +26389,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26651,10 +26417,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26681,10 +26445,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26715,10 +26477,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26749,10 +26509,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -26779,10 +26537,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -26809,10 +26565,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26839,10 +26593,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26869,10 +26621,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26899,10 +26649,8 @@
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26937,10 +26685,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26967,10 +26713,8 @@
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -27005,10 +26749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -27043,10 +26785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -27081,10 +26821,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -27119,10 +26857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -27157,10 +26893,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H803" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -27191,10 +26925,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -27225,10 +26957,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27263,10 +26993,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27289,10 +27017,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27315,10 +27041,8 @@
       <c r="E808" t="inlineStr"/>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27345,10 +27069,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27375,10 +27097,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -27405,10 +27125,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27435,10 +27153,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27465,10 +27181,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27495,10 +27209,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27525,10 +27237,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27555,10 +27265,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27585,10 +27293,8 @@
       </c>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27623,10 +27329,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -27661,10 +27365,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27687,10 +27389,8 @@
       <c r="E820" t="inlineStr"/>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -27717,10 +27417,8 @@
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27751,10 +27449,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="823">
@@ -27781,10 +27477,8 @@
       </c>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27807,10 +27501,8 @@
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27833,10 +27525,8 @@
       <c r="E825" t="inlineStr"/>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27859,10 +27549,8 @@
       </c>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27889,10 +27577,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27919,10 +27605,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27949,10 +27633,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27975,10 +27657,8 @@
       </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -27997,10 +27677,8 @@
       <c r="E831" t="inlineStr"/>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -28027,10 +27705,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28057,10 +27733,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28087,10 +27761,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -28127,10 +27799,8 @@
       <c r="E836" t="inlineStr"/>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -28161,10 +27831,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -28195,10 +27863,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28233,10 +27899,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -28271,10 +27935,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -28309,10 +27971,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H841" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -28347,10 +28007,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28377,10 +28035,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28407,10 +28063,8 @@
       </c>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28445,10 +28099,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28483,10 +28135,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -28513,10 +28163,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28543,10 +28191,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28573,10 +28219,8 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28611,10 +28255,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28649,10 +28291,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28687,10 +28327,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28725,10 +28363,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28763,10 +28399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -28797,10 +28431,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -28835,10 +28467,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28873,10 +28503,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28907,10 +28535,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28945,10 +28571,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28983,10 +28607,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -29017,10 +28639,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29051,10 +28671,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29089,10 +28707,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29127,10 +28743,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -29165,10 +28779,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -29203,10 +28815,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29241,10 +28851,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -29279,10 +28887,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29317,10 +28923,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29343,10 +28947,8 @@
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29373,10 +28975,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29399,10 +28999,8 @@
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29429,10 +29027,8 @@
       </c>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29467,10 +29063,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -29497,10 +29091,8 @@
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29531,10 +29123,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29557,10 +29147,8 @@
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="878">
@@ -29591,10 +29179,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29629,10 +29215,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -29667,10 +29251,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -29701,10 +29283,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -29739,10 +29319,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29777,10 +29355,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29815,10 +29391,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29853,10 +29427,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -29887,10 +29459,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29921,10 +29491,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29955,10 +29523,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29989,10 +29555,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -30019,10 +29583,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30049,10 +29611,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30079,10 +29639,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -30109,10 +29667,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -30139,10 +29695,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -30173,10 +29727,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -30207,10 +29759,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -30245,10 +29795,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -30283,10 +29831,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -30321,10 +29867,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -30351,10 +29895,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -30381,10 +29923,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30411,10 +29951,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30441,10 +29979,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30471,10 +30007,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -30497,110 +30031,148 @@
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr"/>
-      <c r="C906" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr"/>
-      <c r="F906" t="inlineStr"/>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr"/>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
           <t>3</t>
@@ -30610,29 +30182,33 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30644,33 +30220,33 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
@@ -30682,25 +30258,21 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E912" t="inlineStr"/>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
@@ -30712,65 +30284,57 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
           <t>3</t>
@@ -30780,363 +30344,327 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -31148,29 +30676,33 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -31182,29 +30714,29 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -31216,29 +30748,29 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
@@ -31250,31 +30782,31 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F928" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G928" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -31284,107 +30816,83 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -31394,97 +30902,69 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr"/>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr"/>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
@@ -31496,31 +30976,27 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -31530,169 +31006,165 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr"/>
@@ -31706,139 +31178,131 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F943" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31850,71 +31314,63 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F947" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H947" t="inlineStr">
@@ -31926,31 +31382,27 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31960,31 +31412,23 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -31994,31 +31438,23 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
@@ -32028,23 +31464,23 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
@@ -32058,27 +31494,31 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H952" t="inlineStr">
         <is>
           <t>3</t>
@@ -32086,23 +31526,23 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr"/>
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
@@ -32114,101 +31554,109 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B954" t="inlineStr"/>
-      <c r="C954" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr"/>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E956" t="inlineStr"/>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -32218,91 +31666,87 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B958" t="inlineStr"/>
-      <c r="C958" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
           <t>CN</t>
@@ -32310,77 +31754,73 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -32388,35 +31828,27 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A964" t="inlineStr"/>
       <c r="B964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H964" t="inlineStr">
@@ -32428,61 +31860,45 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr"/>
+      <c r="C965" t="inlineStr"/>
       <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E965" t="inlineStr"/>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr"/>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H966" t="inlineStr">
         <is>
           <t>3</t>
@@ -32492,12 +31908,12 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -32506,32 +31922,28 @@
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E967" t="inlineStr"/>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -32542,13 +31954,13 @@
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
       <c r="G968" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H968" t="inlineStr">
@@ -32560,31 +31972,27 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32594,25 +32002,21 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
@@ -32624,17 +32028,17 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
@@ -32650,139 +32054,159 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr"/>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F972" t="inlineStr"/>
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
           <t>3</t>
@@ -32792,23 +32216,31 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
           <t>3</t>
@@ -32818,57 +32250,61 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32878,31 +32314,27 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32910,19 +32342,27 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr"/>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
@@ -32932,137 +32372,145 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
       <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="inlineStr"/>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="985">
-      <c r="A985" t="inlineStr"/>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
           <t>3</t>
@@ -33072,139 +32520,163 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr"/>
-      <c r="C987" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr"/>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr"/>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
       <c r="E988" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
       <c r="E991" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>3</t>
@@ -33214,23 +32686,31 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H992" t="inlineStr">
         <is>
           <t>3</t>
@@ -33240,23 +32720,27 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H993" t="inlineStr">
         <is>
           <t>3</t>
@@ -33266,159 +32750,123 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E994" t="inlineStr"/>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
       <c r="H994" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E995" t="inlineStr"/>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G995" t="inlineStr"/>
       <c r="H995" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E996" t="inlineStr"/>
       <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
       <c r="H997" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A998" t="inlineStr"/>
       <c r="B998" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G998" t="inlineStr"/>
       <c r="H998" t="inlineStr">
         <is>
           <t>3</t>
@@ -33428,732 +32876,72 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr"/>
+      <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E999" t="inlineStr"/>
       <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr"/>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E1001" t="inlineStr"/>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
       <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr"/>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1019" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr"/>
-      <c r="B1020" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1020" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1020" t="inlineStr"/>
-      <c r="E1020" t="inlineStr"/>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr"/>
-      <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
-      <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1022" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1022" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1022" t="inlineStr"/>
-      <c r="E1022" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1023" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1023" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1023" t="inlineStr"/>
-      <c r="E1023" t="inlineStr"/>
-      <c r="F1023" t="inlineStr"/>
-      <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30049,10 +30049,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -30083,10 +30081,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -30121,10 +30117,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -30159,10 +30153,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -30197,10 +30189,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -30235,10 +30225,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -30261,10 +30249,8 @@
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -30295,10 +30281,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -30321,10 +30305,8 @@
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -30351,10 +30333,8 @@
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -30381,10 +30361,8 @@
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -30411,10 +30389,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30441,10 +30417,8 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30471,10 +30445,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30509,10 +30481,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H919" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -30547,10 +30517,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H920" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -30581,10 +30549,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="922">
@@ -30615,10 +30581,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H922" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -30653,10 +30617,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -30691,10 +30653,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30725,10 +30685,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30759,10 +30717,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30793,10 +30749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30823,10 +30777,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30853,10 +30805,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30879,10 +30829,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30923,10 +30871,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H932" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="933">
@@ -30953,10 +30899,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30983,100 +30927,94 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr"/>
-      <c r="C935" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr"/>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr"/>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A937" t="inlineStr"/>
       <c r="B937" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31084,77 +31022,73 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A939" t="inlineStr"/>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A940" t="inlineStr"/>
       <c r="B940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31162,35 +31096,27 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A941" t="inlineStr"/>
       <c r="B941" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
@@ -31202,61 +31128,45 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H943" t="inlineStr">
         <is>
           <t>3</t>
@@ -31266,12 +31176,12 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -31280,32 +31190,28 @@
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -31316,13 +31222,13 @@
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31334,31 +31240,27 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31368,25 +31270,21 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
@@ -31398,17 +31296,17 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
@@ -31424,139 +31322,159 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
       <c r="G951" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr"/>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -31566,23 +31484,31 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H954" t="inlineStr">
         <is>
           <t>3</t>
@@ -31592,57 +31518,61 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31652,31 +31582,27 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31684,19 +31610,27 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr"/>
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
@@ -31706,137 +31640,145 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr"/>
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="961">
-      <c r="A961" t="inlineStr"/>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H961" t="inlineStr">
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" t="inlineStr"/>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31846,139 +31788,163 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr"/>
-      <c r="C964" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr"/>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31988,23 +31954,31 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr"/>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32014,23 +31988,27 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H970" t="inlineStr">
         <is>
           <t>3</t>
@@ -32040,159 +32018,123 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E971" t="inlineStr"/>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E972" t="inlineStr"/>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E973" t="inlineStr"/>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E974" t="inlineStr"/>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A975" t="inlineStr"/>
       <c r="B975" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
           <t>3</t>
@@ -32202,734 +32144,108 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr"/>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E976" t="inlineStr"/>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E978" t="inlineStr"/>
       <c r="F978" t="inlineStr"/>
       <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr"/>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr"/>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr"/>
-      <c r="C998" t="inlineStr"/>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr"/>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H979"/>
+  <dimension ref="A1:H983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30836,99 +30836,113 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr"/>
-      <c r="C931" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr"/>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="n">
-        <v>2</v>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="n">
-        <v>3</v>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
-      <c r="H934" t="n">
-        <v>3</v>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="935">
@@ -32249,6 +32263,142 @@
         </is>
       </c>
     </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr"/>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr"/>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="F981" t="inlineStr"/>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr"/>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H983"/>
+  <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27754,145 +27754,189 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr"/>
-      <c r="C834" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D834" t="inlineStr"/>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr"/>
-      <c r="H834" t="inlineStr"/>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>£-18.0B</t>
+        </is>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>£-17.0B</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr"/>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>£-7.28B</t>
+        </is>
+      </c>
       <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr"/>
-      <c r="H835" t="n">
-        <v>3</v>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>£-6.8B</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D836" t="inlineStr"/>
       <c r="E836" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F836" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G836" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H836" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D837" t="inlineStr"/>
       <c r="E837" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F837" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H837" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D838" t="inlineStr"/>
       <c r="E838" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>£-3.72B</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr"/>
       <c r="G838" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H838" t="n">
-        <v>3</v>
+          <t>£-3.9B</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -27902,529 +27946,537 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D839" t="inlineStr"/>
       <c r="E839" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>28%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F839" t="inlineStr"/>
       <c r="G839" t="inlineStr">
         <is>
-          <t>26.0%</t>
-        </is>
-      </c>
-      <c r="H839" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D840" t="inlineStr"/>
       <c r="E840" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H840" t="n">
-        <v>1</v>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D841" t="inlineStr"/>
       <c r="E841" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
         <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H841" t="n">
-        <v>2</v>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D842" t="inlineStr"/>
       <c r="E842" t="inlineStr">
         <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr"/>
-      <c r="H842" t="n">
-        <v>2</v>
+          <t>€5.153B</t>
+        </is>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>€4.5B</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>€3.2B</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D843" t="inlineStr"/>
       <c r="E843" t="inlineStr">
         <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr"/>
-      <c r="H843" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H844" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D845" t="inlineStr"/>
       <c r="E845" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H845" t="n">
-        <v>2</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr">
         <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr"/>
-      <c r="H846" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>BoE Credit Conditions Survey</t>
         </is>
       </c>
       <c r="D847" t="inlineStr"/>
-      <c r="E847" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
+      <c r="E847" t="inlineStr"/>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="n">
-        <v>3</v>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>12-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D848" t="inlineStr"/>
       <c r="E848" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>3.187%</t>
         </is>
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="n">
-        <v>3</v>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>25-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F849" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G849" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H849" t="n">
-        <v>2</v>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>5-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D850" t="inlineStr"/>
       <c r="E850" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H850" t="n">
-        <v>2</v>
+          <t>2.372%</t>
+        </is>
+      </c>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>€6.8B</t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>€7.2B</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H851" t="n">
-        <v>3</v>
+          <t>€1.8B</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H852" t="n">
-        <v>3</v>
+          <t>$92.59B</t>
+        </is>
+      </c>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D853" t="inlineStr"/>
       <c r="E853" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H853" t="n">
-        <v>1</v>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>ECB Monetary Policy Meeting Accounts</t>
         </is>
       </c>
       <c r="D854" t="inlineStr"/>
-      <c r="E854" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E854" t="inlineStr"/>
       <c r="F854" t="inlineStr"/>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H854" t="n">
-        <v>1</v>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -28434,158 +28486,162 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D855" t="inlineStr"/>
       <c r="E855" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F855" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H855" t="n">
-        <v>2</v>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>£-18.0B</t>
+          <t>250k</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
         <is>
-          <t>£-17.0B</t>
-        </is>
-      </c>
-      <c r="H856" t="n">
-        <v>2</v>
+          <t>240.0K</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
-      <c r="F857" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>£-6.8B</t>
-        </is>
-      </c>
-      <c r="H857" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
       <c r="E858" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F858" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr"/>
       <c r="G858" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H858" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -28593,622 +28649,658 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H859" t="n">
-        <v>2</v>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D860" t="inlineStr"/>
       <c r="E860" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
-      <c r="F860" t="inlineStr"/>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>£-3.9B</t>
-        </is>
-      </c>
-      <c r="H860" t="n">
-        <v>3</v>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F861" t="inlineStr"/>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H861" t="n">
-        <v>3</v>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
       <c r="E862" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H862" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F863" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>1867K</t>
+        </is>
+      </c>
+      <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="H863" t="n">
-        <v>3</v>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr">
         <is>
-          <t>€5.153B</t>
-        </is>
-      </c>
-      <c r="F864" t="inlineStr">
-        <is>
-          <t>€4.5B</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr">
         <is>
-          <t>€3.2B</t>
-        </is>
-      </c>
-      <c r="H864" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F865" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr"/>
       <c r="G865" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H865" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F866" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H866" t="n">
-        <v>2</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
       <c r="E867" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F867" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G867" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H867" t="n">
-        <v>3</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F868" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G868" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H868" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>BoE Credit Conditions Survey</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
-      <c r="E869" t="inlineStr"/>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
       <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr"/>
-      <c r="H869" t="n">
-        <v>3</v>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>12-Year Obligacion Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr">
         <is>
-          <t>3.187%</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="n">
-        <v>3</v>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>25-Year Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr"/>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="n">
-        <v>3</v>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>5-Year Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr">
         <is>
-          <t>2.372%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-      <c r="H872" t="n">
-        <v>3</v>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>€6.8B</t>
-        </is>
-      </c>
-      <c r="F873" t="inlineStr">
-        <is>
-          <t>€7.2B</t>
-        </is>
-      </c>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr">
         <is>
-          <t>€1.8B</t>
-        </is>
-      </c>
-      <c r="H873" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>$92.59B</t>
-        </is>
-      </c>
-      <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr"/>
-      <c r="H874" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F875" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H875" t="n">
-        <v>3</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>ECB Monetary Policy Meeting Accounts</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
-      <c r="E876" t="inlineStr"/>
-      <c r="F876" t="inlineStr"/>
-      <c r="G876" t="inlineStr"/>
-      <c r="H876" t="n">
-        <v>2</v>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="F877" t="inlineStr"/>
-      <c r="G877" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H877" t="n">
-        <v>3</v>
+      <c r="G877" t="inlineStr"/>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr">
         <is>
-          <t>262.4K</t>
-        </is>
-      </c>
-      <c r="F878" t="inlineStr">
-        <is>
-          <t>250k</t>
-        </is>
-      </c>
-      <c r="G878" t="inlineStr">
-        <is>
-          <t>240.0K</t>
-        </is>
-      </c>
-      <c r="H878" t="n">
-        <v>2</v>
+          <t>4.245%</t>
+        </is>
+      </c>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr"/>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -29218,33 +29310,27 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F879" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G879" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H879" t="n">
-        <v>1</v>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -29254,29 +29340,27 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H880" t="n">
-        <v>2</v>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -29286,105 +29370,67 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G881" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H881" t="n">
-        <v>2</v>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>BoC Gravelle Speech</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
-      <c r="E882" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="F882" t="inlineStr">
-        <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H882" t="n">
-        <v>2</v>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B883" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C883" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr"/>
+      <c r="C883" t="inlineStr"/>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="F883" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G883" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H883" t="n">
-        <v>2</v>
-      </c>
+      <c r="E883" t="inlineStr"/>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr"/>
+      <c r="H883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -29394,631 +29440,721 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F884" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G884" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H884" t="n">
-        <v>2</v>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>¥-331.8B</t>
         </is>
       </c>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H885" t="n">
-        <v>3</v>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥-74B</t>
         </is>
       </c>
       <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H886" t="n">
-        <v>3</v>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H887" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="F888" t="inlineStr"/>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H888" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="n">
-        <v>3</v>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
-      <c r="H890" t="n">
-        <v>3</v>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
-      <c r="H891" t="n">
-        <v>3</v>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
-      <c r="H892" t="n">
-        <v>3</v>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
-      <c r="H893" t="n">
-        <v>3</v>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F894" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H894" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H895" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H896" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F897" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H897" t="n">
-        <v>2</v>
+          <t>75.3%</t>
+        </is>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H898" t="n">
-        <v>3</v>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>0.2402%</t>
         </is>
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="n">
-        <v>3</v>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
-      <c r="H900" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
-      <c r="H901" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
-      <c r="H902" t="n">
-        <v>3</v>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
-      <c r="H903" t="n">
-        <v>3</v>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>BoC Gravelle Speech</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr"/>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr"/>
-      <c r="H904" t="n">
-        <v>2</v>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>€33.0B</t>
+        </is>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="905">
@@ -30049,8 +30185,10 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="n">
-        <v>3</v>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="906">
@@ -30081,8 +30219,10 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H906" t="n">
-        <v>2</v>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="907">
@@ -30117,8 +30257,10 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H907" t="n">
-        <v>2</v>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="908">
@@ -30153,8 +30295,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H908" t="n">
-        <v>3</v>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="909">
@@ -30189,8 +30333,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H909" t="n">
-        <v>3</v>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="910">
@@ -30225,8 +30371,10 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H910" t="n">
-        <v>3</v>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="911">
@@ -30249,8 +30397,10 @@
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="n">
-        <v>3</v>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="912">
@@ -30281,8 +30431,10 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H912" t="n">
-        <v>3</v>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="913">
@@ -30305,8 +30457,10 @@
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="n">
-        <v>3</v>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="914">
@@ -30333,8 +30487,10 @@
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="n">
-        <v>3</v>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="915">
@@ -30361,8 +30517,10 @@
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr"/>
-      <c r="H915" t="n">
-        <v>3</v>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="916">
@@ -30389,8 +30547,10 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="n">
-        <v>3</v>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="917">
@@ -30417,8 +30577,10 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="n">
-        <v>3</v>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="918">
@@ -30445,8 +30607,10 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="n">
-        <v>3</v>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="919">
@@ -30481,8 +30645,10 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H919" t="n">
-        <v>1</v>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="920">
@@ -30517,8 +30683,10 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H920" t="n">
-        <v>1</v>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="921">
@@ -30549,8 +30717,10 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H921" t="n">
-        <v>2</v>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="922">
@@ -30581,8 +30751,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H922" t="n">
-        <v>2</v>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="923">
@@ -30617,8 +30789,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H923" t="n">
-        <v>2</v>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="924">
@@ -30653,8 +30827,10 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H924" t="n">
-        <v>3</v>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="925">
@@ -30685,8 +30861,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H925" t="n">
-        <v>3</v>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="926">
@@ -30717,8 +30895,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H926" t="n">
-        <v>3</v>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="927">
@@ -30749,8 +30929,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H927" t="n">
-        <v>3</v>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="928">
@@ -30777,8 +30959,10 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="n">
-        <v>3</v>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="929">
@@ -30805,8 +30989,10 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="n">
-        <v>3</v>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="930">
@@ -30829,116 +31015,110 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="n">
-        <v>3</v>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+      <c r="C931" t="inlineStr"/>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr"/>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -30948,87 +31128,91 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr"/>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
+      <c r="H935" t="inlineStr"/>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr"/>
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr"/>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr"/>
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr"/>
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B938" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31036,73 +31220,77 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr"/>
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr"/>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr"/>
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31110,27 +31298,35 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr"/>
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
@@ -31142,45 +31338,61 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr"/>
-      <c r="C942" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Industrial Production YoY FinalNOV</t>
+        </is>
+      </c>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr"/>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr"/>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
           <t>3</t>
@@ -31190,12 +31402,12 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -31204,28 +31416,32 @@
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr"/>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -31236,13 +31452,13 @@
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31254,27 +31470,31 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr"/>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31284,21 +31504,25 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr"/>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
@@ -31310,17 +31534,17 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
@@ -31336,159 +31560,139 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
       <c r="G951" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>$ 10B</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -31498,31 +31702,23 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G954" t="inlineStr"/>
       <c r="H954" t="inlineStr">
         <is>
           <t>3</t>
@@ -31532,61 +31728,57 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
+      <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31596,27 +31788,31 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31624,27 +31820,19 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A958" t="inlineStr"/>
       <c r="B958" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
@@ -31654,89 +31842,77 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E961" t="inlineStr"/>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
           <t>3</t>
@@ -31744,25 +31920,29 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr"/>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
@@ -31770,29 +31950,29 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31802,163 +31982,139 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>$ 1463M</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31968,31 +32124,23 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E969" t="inlineStr"/>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32002,27 +32150,23 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
         <is>
           <t>3</t>
@@ -32032,123 +32176,159 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr"/>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr"/>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr"/>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr"/>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr"/>
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H975" t="inlineStr">
         <is>
           <t>3</t>
@@ -32158,105 +32338,125 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr"/>
-      <c r="C976" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Claimant Count ChangeDEC</t>
+        </is>
+      </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
-      <c r="H976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
       <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32266,7 +32466,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -32276,55 +32476,47 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
       <c r="E981" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
         <is>
           <t>2</t>
@@ -32334,66 +32526,714 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr"/>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMNOV</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>CPI Trimmed-Mean YoYDEC</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr"/>
+      <c r="E992" t="inlineStr"/>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/18</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="inlineStr"/>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>52-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="inlineStr"/>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr"/>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>ECOFIN Meeting</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr"/>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>88.4</t>
+        </is>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>£-11.25B</t>
+        </is>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
+      <c r="H1005" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1005"/>
+  <dimension ref="A1:H983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27783,10 +27783,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -27817,10 +27815,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="836">
@@ -27855,10 +27851,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -27893,10 +27887,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -27927,10 +27919,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -27961,10 +27951,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -27999,10 +27987,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -28037,10 +28023,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -28075,10 +28059,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28113,10 +28095,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28151,10 +28131,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="845">
@@ -28189,10 +28167,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28227,10 +28203,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28253,10 +28227,8 @@
       <c r="E847" t="inlineStr"/>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28283,10 +28255,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28309,10 +28279,8 @@
       <c r="E849" t="inlineStr"/>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28339,10 +28307,8 @@
       </c>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -28377,10 +28343,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28407,10 +28371,8 @@
       </c>
       <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr"/>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28441,10 +28403,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28467,10 +28427,8 @@
       <c r="E854" t="inlineStr"/>
       <c r="F854" t="inlineStr"/>
       <c r="G854" t="inlineStr"/>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -28501,10 +28459,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28539,10 +28495,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28577,10 +28531,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H857" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -28611,10 +28563,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28649,10 +28599,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28687,10 +28635,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -28725,10 +28671,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -28763,10 +28707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="863">
@@ -28797,10 +28739,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -28831,10 +28771,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28865,10 +28803,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -28899,10 +28835,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28929,10 +28863,8 @@
       </c>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28959,10 +28891,8 @@
       </c>
       <c r="F868" t="inlineStr"/>
       <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -28989,10 +28919,8 @@
       </c>
       <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29019,10 +28947,8 @@
       </c>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29049,10 +28975,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29083,10 +29007,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29117,10 +29039,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29155,10 +29075,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -29193,10 +29111,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="876">
@@ -29231,10 +29147,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29261,10 +29175,8 @@
       </c>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29291,10 +29203,8 @@
       </c>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29321,10 +29231,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -29351,10 +29259,8 @@
       </c>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29381,10 +29287,8 @@
       </c>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -29407,110 +29311,148 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B883" t="inlineStr"/>
-      <c r="C883" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr"/>
-      <c r="F883" t="inlineStr"/>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr"/>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr"/>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H886" t="inlineStr">
         <is>
           <t>3</t>
@@ -29520,29 +29462,33 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F887" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H887" t="inlineStr">
@@ -29554,33 +29500,33 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H888" t="inlineStr">
@@ -29592,25 +29538,21 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E889" t="inlineStr"/>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
@@ -29622,65 +29564,57 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
-      <c r="E891" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G891" t="inlineStr"/>
       <c r="H891" t="inlineStr">
         <is>
           <t>3</t>
@@ -29690,363 +29624,327 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F892" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr"/>
       <c r="H892" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F893" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G893" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr"/>
       <c r="H893" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F894" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G895" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="inlineStr"/>
       <c r="H895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G896" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F897" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr"/>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F900" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H901" t="inlineStr">
@@ -30058,29 +29956,33 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H902" t="inlineStr">
@@ -30092,29 +29994,29 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H903" t="inlineStr">
@@ -30126,29 +30028,29 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H904" t="inlineStr">
@@ -30160,31 +30062,31 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F905" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G905" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H905" t="inlineStr">
         <is>
           <t>3</t>
@@ -30194,107 +30096,83 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr"/>
       <c r="H907" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A908" t="inlineStr"/>
       <c r="B908" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
           <t>3</t>
@@ -30304,97 +30182,69 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B909" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C909" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr"/>
+      <c r="C909" t="inlineStr"/>
       <c r="D909" t="inlineStr"/>
-      <c r="E909" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E909" t="inlineStr"/>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G910" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr"/>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
@@ -30406,31 +30256,27 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
         <is>
           <t>3</t>
@@ -30440,169 +30286,165 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B913" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C913" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr"/>
+      <c r="C913" t="inlineStr"/>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr"/>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
@@ -30616,139 +30458,131 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H922" t="inlineStr">
@@ -30760,71 +30594,63 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -30836,31 +30662,27 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
         <is>
           <t>3</t>
@@ -30870,31 +30692,23 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
           <t>3</t>
@@ -30904,31 +30718,23 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
           <t>3</t>
@@ -30938,23 +30744,23 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
@@ -30968,27 +30774,31 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H929" t="inlineStr">
         <is>
           <t>3</t>
@@ -30996,23 +30806,23 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr"/>
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E930" t="inlineStr"/>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
@@ -31024,101 +30834,109 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr"/>
-      <c r="C931" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr"/>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -31128,91 +30946,87 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr"/>
-      <c r="C935" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr"/>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr"/>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A937" t="inlineStr"/>
       <c r="B937" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31220,77 +31034,73 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A939" t="inlineStr"/>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A940" t="inlineStr"/>
       <c r="B940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31298,35 +31108,27 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A941" t="inlineStr"/>
       <c r="B941" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
@@ -31338,61 +31140,45 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H943" t="inlineStr">
         <is>
           <t>3</t>
@@ -31402,12 +31188,12 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -31416,32 +31202,28 @@
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -31452,13 +31234,13 @@
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31470,31 +31252,27 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31504,25 +31282,21 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
@@ -31534,17 +31308,17 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
@@ -31560,139 +31334,159 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
       <c r="G951" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr"/>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -31702,23 +31496,31 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H954" t="inlineStr">
         <is>
           <t>3</t>
@@ -31728,57 +31530,61 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31788,31 +31594,27 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31820,19 +31622,27 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr"/>
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
@@ -31842,137 +31652,145 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr"/>
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="961">
-      <c r="A961" t="inlineStr"/>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H961" t="inlineStr">
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" t="inlineStr"/>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31982,139 +31800,163 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr"/>
-      <c r="C964" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr"/>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -32124,23 +31966,31 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr"/>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32150,23 +32000,27 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H970" t="inlineStr">
         <is>
           <t>3</t>
@@ -32176,159 +32030,123 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E971" t="inlineStr"/>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E972" t="inlineStr"/>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E973" t="inlineStr"/>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E974" t="inlineStr"/>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A975" t="inlineStr"/>
       <c r="B975" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
           <t>3</t>
@@ -32338,125 +32156,105 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr"/>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E976" t="inlineStr"/>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E978" t="inlineStr"/>
       <c r="F978" t="inlineStr"/>
       <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32466,7 +32264,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -32476,47 +32274,55 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
       <c r="E981" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr"/>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H981" t="inlineStr">
         <is>
           <t>2</t>
@@ -32526,714 +32332,66 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr"/>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr"/>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr"/>
-      <c r="C998" t="inlineStr"/>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr"/>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1005" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H983"/>
+  <dimension ref="A1:H964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29343,10 +29343,8 @@
         </is>
       </c>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -29377,10 +29375,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29415,10 +29411,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -29453,10 +29447,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29491,10 +29483,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29529,10 +29519,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29555,10 +29543,8 @@
       <c r="E889" t="inlineStr"/>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29589,10 +29575,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29615,10 +29599,8 @@
       <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29645,10 +29627,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29675,10 +29655,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29705,10 +29683,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29735,10 +29711,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29765,10 +29739,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29803,10 +29775,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H897" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -29841,10 +29811,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29875,10 +29843,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="900">
@@ -29909,10 +29875,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29947,10 +29911,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -29985,10 +29947,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30019,10 +29979,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30053,10 +30011,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -30087,10 +30043,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -30117,10 +30071,8 @@
       </c>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -30147,10 +30099,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -30173,10 +30123,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -30217,10 +30165,8 @@
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H910" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="911">
@@ -30247,10 +30193,8 @@
       </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -30277,100 +30221,94 @@
       </c>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B913" t="inlineStr"/>
-      <c r="C913" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr"/>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr"/>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A914" t="inlineStr"/>
       <c r="B914" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A915" t="inlineStr"/>
       <c r="B915" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A916" t="inlineStr"/>
       <c r="B916" t="inlineStr">
         <is>
           <t>CN</t>
@@ -30378,77 +30316,73 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A917" t="inlineStr"/>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
-      <c r="E917" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr"/>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A918" t="inlineStr"/>
       <c r="B918" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr"/>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H918" t="inlineStr">
         <is>
           <t>3</t>
@@ -30456,35 +30390,27 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A919" t="inlineStr"/>
       <c r="B919" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
@@ -30496,61 +30422,45 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B920" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C920" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr"/>
+      <c r="C920" t="inlineStr"/>
       <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E920" t="inlineStr"/>
       <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G920" t="inlineStr"/>
+      <c r="H920" t="inlineStr"/>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H921" t="inlineStr">
         <is>
           <t>3</t>
@@ -30560,12 +30470,12 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -30574,32 +30484,28 @@
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -30610,13 +30516,13 @@
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
@@ -30628,31 +30534,27 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
           <t>3</t>
@@ -30662,25 +30564,21 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
@@ -30692,17 +30590,17 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
@@ -30718,139 +30616,159 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr"/>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr"/>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -30860,23 +30778,31 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr"/>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H932" t="inlineStr">
         <is>
           <t>3</t>
@@ -30886,57 +30812,61 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -30946,31 +30876,27 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -30978,19 +30904,27 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr"/>
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr"/>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
@@ -31000,137 +30934,145 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr"/>
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr"/>
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr"/>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr"/>
+      <c r="H939" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="939">
-      <c r="A939" t="inlineStr"/>
-      <c r="B939" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C939" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr"/>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H939" t="inlineStr">
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr"/>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="inlineStr"/>
+      <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="940">
-      <c r="A940" t="inlineStr"/>
-      <c r="B940" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="941">
-      <c r="A941" t="inlineStr"/>
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G941" t="inlineStr"/>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31140,139 +31082,163 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr"/>
-      <c r="C942" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr"/>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr"/>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr"/>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr"/>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31282,23 +31248,31 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr"/>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31308,23 +31282,27 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr"/>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31334,159 +31312,123 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
-      <c r="E951" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E951" t="inlineStr"/>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G951" t="inlineStr"/>
       <c r="H951" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A953" t="inlineStr"/>
       <c r="B953" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -31496,125 +31438,105 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B954" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C954" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr"/>
+      <c r="C954" t="inlineStr"/>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G954" t="inlineStr"/>
+      <c r="H954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E956" t="inlineStr"/>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31624,7 +31546,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -31634,47 +31556,55 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr"/>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H959" t="inlineStr">
         <is>
           <t>2</t>
@@ -31684,57 +31614,65 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr"/>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
           <t>3</t>
@@ -31754,7 +31692,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
@@ -31770,12 +31708,12 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -31786,11 +31724,15 @@
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31800,12 +31742,12 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -31816,582 +31758,12 @@
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
       <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B966" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C966" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B967" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C967" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B968" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C968" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D968" t="inlineStr"/>
-      <c r="E968" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B969" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C969" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C970" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr"/>
-      <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B971" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C971" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
-      <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr"/>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B972" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C972" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr"/>
-      <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr"/>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C973" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr"/>
-      <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B974" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C974" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr"/>
-      <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr"/>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr"/>
-      <c r="B975" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C975" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
-      <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr"/>
-      <c r="C976" t="inlineStr"/>
-      <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
-      <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
-      <c r="H976" t="inlineStr"/>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B977" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B978" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B979" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H983" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H964"/>
+  <dimension ref="A1:H972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30130,99 +30130,113 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B909" t="inlineStr"/>
-      <c r="C909" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr"/>
       <c r="F909" t="inlineStr"/>
       <c r="G909" t="inlineStr"/>
-      <c r="H909" t="inlineStr"/>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
-      <c r="E910" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="n">
-        <v>2</v>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="n">
-        <v>3</v>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
-      <c r="H912" t="n">
-        <v>3</v>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="913">
@@ -31769,6 +31783,218 @@
         </is>
       </c>
     </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>04:40 PM</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr"/>
+      <c r="E965" t="inlineStr"/>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>04:40 PM</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr"/>
+      <c r="E966" t="inlineStr"/>
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr"/>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>M3 Money Supply YoYJAN/10</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr"/>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>9.3%</t>
+        </is>
+      </c>
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr"/>
+      <c r="E968" t="inlineStr"/>
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr"/>
+      <c r="E969" t="inlineStr"/>
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="inlineStr"/>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr"/>
+      <c r="E970" t="inlineStr"/>
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="inlineStr"/>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="inlineStr"/>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1026"/>
+  <dimension ref="A1:H1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23679,10 +23679,8 @@
       </c>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -23713,10 +23711,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="703">
@@ -23747,10 +23743,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="704">
@@ -23785,10 +23779,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="705">
@@ -23819,10 +23811,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -23845,10 +23835,8 @@
       <c r="E706" t="inlineStr"/>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="inlineStr"/>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23879,10 +23867,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23905,10 +23891,8 @@
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23943,10 +23927,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -23977,10 +23959,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24007,10 +23987,8 @@
       </c>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24037,10 +24015,8 @@
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24067,10 +24043,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24097,10 +24071,8 @@
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24123,10 +24095,8 @@
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
       <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24161,10 +24131,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24195,10 +24163,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24233,10 +24199,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H718" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -24271,10 +24235,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -24309,10 +24271,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24343,10 +24303,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24377,10 +24335,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -24411,10 +24367,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24449,10 +24403,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24479,10 +24431,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24505,10 +24455,8 @@
       <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="727">
@@ -24543,10 +24491,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24573,10 +24519,8 @@
       </c>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24599,10 +24543,8 @@
       </c>
       <c r="F729" t="inlineStr"/>
       <c r="G729" t="inlineStr"/>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24647,10 +24589,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="732">
@@ -24681,10 +24621,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24707,10 +24645,8 @@
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr"/>
       <c r="G733" t="inlineStr"/>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="734">
@@ -24741,10 +24677,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24775,10 +24709,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24805,10 +24737,8 @@
       </c>
       <c r="F736" t="inlineStr"/>
       <c r="G736" t="inlineStr"/>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="737">
@@ -24839,10 +24769,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24865,10 +24793,8 @@
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24903,10 +24829,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -24937,10 +24861,8 @@
         </is>
       </c>
       <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -24971,10 +24893,8 @@
         </is>
       </c>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25009,10 +24929,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -25047,10 +24965,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="744">
@@ -25081,10 +24997,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H744" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="745">
@@ -25119,10 +25033,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H745" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -25157,10 +25069,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -25191,10 +25101,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -25225,10 +25133,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -25259,10 +25165,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -25293,10 +25197,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25331,10 +25233,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25365,10 +25265,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -25403,10 +25301,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25437,10 +25333,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25471,10 +25365,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -25509,10 +25401,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="757">
@@ -25543,10 +25433,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="758">
@@ -25577,10 +25465,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -25611,10 +25497,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -25645,10 +25529,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25683,10 +25565,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="762">
@@ -25721,10 +25601,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="763">
@@ -25759,10 +25637,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25797,10 +25673,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25823,10 +25697,8 @@
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
       <c r="G765" t="inlineStr"/>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25861,10 +25733,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25899,10 +25769,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25937,10 +25805,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25975,10 +25841,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26013,10 +25877,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -26039,10 +25901,8 @@
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
       <c r="G771" t="inlineStr"/>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -26077,10 +25937,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -26115,10 +25973,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="774">
@@ -26153,10 +26009,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -26183,10 +26037,8 @@
       </c>
       <c r="F775" t="inlineStr"/>
       <c r="G775" t="inlineStr"/>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -26213,10 +26065,8 @@
       </c>
       <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr"/>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26247,10 +26097,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26281,10 +26129,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26311,10 +26157,8 @@
       </c>
       <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr"/>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="780">
@@ -26341,10 +26185,8 @@
       </c>
       <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr"/>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26371,10 +26213,8 @@
       </c>
       <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr"/>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26401,10 +26241,8 @@
       </c>
       <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr"/>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26431,10 +26269,8 @@
       </c>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26469,10 +26305,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -26499,10 +26333,8 @@
       </c>
       <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr"/>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -26537,10 +26369,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -26575,10 +26405,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H787" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -26613,10 +26441,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H788" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -26651,10 +26477,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H789" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -26689,10 +26513,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H790" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -26723,10 +26545,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -26757,10 +26577,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -26795,10 +26613,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="794">
@@ -26821,10 +26637,8 @@
       <c r="E794" t="inlineStr"/>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="795">
@@ -26847,10 +26661,8 @@
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -26877,10 +26689,8 @@
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="797">
@@ -26907,10 +26717,8 @@
       </c>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="798">
@@ -26937,10 +26745,8 @@
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -26967,10 +26773,8 @@
       </c>
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="inlineStr"/>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -26997,10 +26801,8 @@
       </c>
       <c r="F800" t="inlineStr"/>
       <c r="G800" t="inlineStr"/>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -27027,10 +26829,8 @@
       </c>
       <c r="F801" t="inlineStr"/>
       <c r="G801" t="inlineStr"/>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -27057,10 +26857,8 @@
       </c>
       <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr"/>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="803">
@@ -27087,10 +26885,8 @@
       </c>
       <c r="F803" t="inlineStr"/>
       <c r="G803" t="inlineStr"/>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="804">
@@ -27117,10 +26913,8 @@
       </c>
       <c r="F804" t="inlineStr"/>
       <c r="G804" t="inlineStr"/>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -27155,10 +26949,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27193,10 +26985,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27219,10 +27009,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27249,10 +27037,8 @@
       </c>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="809">
@@ -27283,10 +27069,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27313,10 +27097,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27339,10 +27121,8 @@
       <c r="E811" t="inlineStr"/>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -27365,10 +27145,8 @@
       <c r="E812" t="inlineStr"/>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27391,10 +27169,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27421,10 +27197,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27451,10 +27225,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27481,10 +27253,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27507,10 +27277,8 @@
       </c>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27529,10 +27297,8 @@
       <c r="E818" t="inlineStr"/>
       <c r="F818" t="inlineStr"/>
       <c r="G818" t="inlineStr"/>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27559,10 +27325,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27589,10 +27353,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27619,10 +27381,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27659,10 +27419,8 @@
       <c r="E823" t="inlineStr"/>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27693,10 +27451,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27727,10 +27483,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27765,10 +27519,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27803,10 +27555,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -27841,10 +27591,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H828" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -27879,10 +27627,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -27909,10 +27655,8 @@
       </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27939,10 +27683,8 @@
       </c>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -27977,10 +27719,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28015,10 +27755,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -28045,10 +27783,8 @@
       </c>
       <c r="F834" t="inlineStr"/>
       <c r="G834" t="inlineStr"/>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -28075,10 +27811,8 @@
       </c>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -28105,10 +27839,8 @@
       </c>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -28143,10 +27875,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -28181,10 +27911,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="839">
@@ -28219,10 +27947,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -28257,10 +27983,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -28295,10 +28019,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H841" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -28329,10 +28051,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H842" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -28367,10 +28087,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28405,10 +28123,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="845">
@@ -28439,10 +28155,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -28477,10 +28191,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -28515,10 +28227,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -28549,10 +28259,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28583,10 +28291,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28621,10 +28327,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -28659,10 +28363,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28697,10 +28399,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="853">
@@ -28735,10 +28435,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="854">
@@ -28773,10 +28471,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -28811,10 +28507,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28849,10 +28543,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -28875,10 +28567,8 @@
       <c r="E857" t="inlineStr"/>
       <c r="F857" t="inlineStr"/>
       <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28905,10 +28595,8 @@
       </c>
       <c r="F858" t="inlineStr"/>
       <c r="G858" t="inlineStr"/>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28931,10 +28619,8 @@
       <c r="E859" t="inlineStr"/>
       <c r="F859" t="inlineStr"/>
       <c r="G859" t="inlineStr"/>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28961,10 +28647,8 @@
       </c>
       <c r="F860" t="inlineStr"/>
       <c r="G860" t="inlineStr"/>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28999,10 +28683,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -29029,10 +28711,8 @@
       </c>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29063,10 +28743,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29089,10 +28767,8 @@
       <c r="E864" t="inlineStr"/>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="865">
@@ -29123,10 +28799,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -29161,10 +28835,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29199,10 +28871,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H867" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -29233,10 +28903,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -29271,10 +28939,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -29309,10 +28975,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -29347,10 +29011,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="872">
@@ -29385,10 +29047,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H872" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="873">
@@ -29419,10 +29079,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29453,10 +29111,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29487,10 +29143,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29521,10 +29175,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29551,10 +29203,8 @@
       </c>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29581,10 +29231,8 @@
       </c>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29611,10 +29259,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -29641,10 +29287,8 @@
       </c>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -29671,10 +29315,8 @@
       </c>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -29705,10 +29347,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -29739,10 +29379,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -29777,10 +29415,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29815,10 +29451,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -29853,10 +29487,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29883,10 +29515,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29913,10 +29543,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29943,10 +29571,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29973,10 +29599,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30003,10 +29627,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30029,110 +29651,148 @@
       <c r="E892" t="inlineStr"/>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H892" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B893" t="inlineStr"/>
-      <c r="C893" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D893" t="inlineStr"/>
-      <c r="E893" t="inlineStr"/>
-      <c r="F893" t="inlineStr"/>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr"/>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H896" t="inlineStr">
         <is>
           <t>3</t>
@@ -30142,29 +29802,33 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F897" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -30176,33 +29840,33 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
@@ -30214,25 +29878,21 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
@@ -30244,65 +29904,57 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
         <is>
           <t>3</t>
@@ -30312,363 +29964,327 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G902" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F903" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
       <c r="H903" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F904" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G904" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F905" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G905" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F906" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
@@ -30680,29 +30296,33 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F912" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G912" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
@@ -30714,29 +30334,29 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
@@ -30748,29 +30368,29 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H914" t="inlineStr">
@@ -30782,31 +30402,31 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H915" t="inlineStr">
         <is>
           <t>3</t>
@@ -30816,107 +30436,83 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A918" t="inlineStr"/>
       <c r="B918" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
           <t>3</t>
@@ -30926,97 +30522,69 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C919" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr"/>
+      <c r="C919" t="inlineStr"/>
       <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E919" t="inlineStr"/>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G920" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
@@ -31028,31 +30596,27 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
         <is>
           <t>3</t>
@@ -31062,169 +30626,165 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr"/>
+      <c r="C923" t="inlineStr"/>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr"/>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
@@ -31238,139 +30798,131 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H932" t="inlineStr">
@@ -31382,71 +30934,63 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F934" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H934" t="inlineStr">
@@ -31458,31 +31002,27 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -31492,31 +31032,23 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
         <is>
           <t>3</t>
@@ -31526,31 +31058,23 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E937" t="inlineStr"/>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
           <t>3</t>
@@ -31560,23 +31084,23 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
@@ -31590,27 +31114,31 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H939" t="inlineStr">
         <is>
           <t>3</t>
@@ -31618,23 +31146,23 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr"/>
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E940" t="inlineStr"/>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
@@ -31646,101 +31174,109 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B941" t="inlineStr"/>
-      <c r="C941" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr"/>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
       <c r="H942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E943" t="inlineStr"/>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H944" t="inlineStr">
         <is>
           <t>3</t>
@@ -31750,91 +31286,87 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B945" t="inlineStr"/>
-      <c r="C945" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr"/>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
-      <c r="H945" t="inlineStr"/>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A946" t="inlineStr"/>
       <c r="B946" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A947" t="inlineStr"/>
       <c r="B947" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A948" t="inlineStr"/>
       <c r="B948" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31842,77 +31374,73 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A949" t="inlineStr"/>
       <c r="B949" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr"/>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A950" t="inlineStr"/>
       <c r="B950" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
@@ -31920,35 +31448,27 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A951" t="inlineStr"/>
       <c r="B951" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F951" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F951" t="inlineStr"/>
       <c r="G951" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
@@ -31960,61 +31480,45 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C952" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr"/>
+      <c r="C952" t="inlineStr"/>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G952" t="inlineStr"/>
+      <c r="H952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -32024,12 +31528,12 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -32038,32 +31542,28 @@
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -32074,13 +31574,13 @@
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H955" t="inlineStr">
@@ -32092,31 +31592,27 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -32126,25 +31622,21 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
@@ -32156,17 +31648,17 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
@@ -32182,139 +31674,159 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr"/>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr"/>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr"/>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr"/>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -32324,23 +31836,31 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr"/>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H964" t="inlineStr">
         <is>
           <t>3</t>
@@ -32350,57 +31870,61 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr"/>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr"/>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G966" t="inlineStr"/>
       <c r="H966" t="inlineStr">
         <is>
           <t>3</t>
@@ -32410,31 +31934,27 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G967" t="inlineStr"/>
       <c r="H967" t="inlineStr">
         <is>
           <t>3</t>
@@ -32442,19 +31962,27 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" t="inlineStr"/>
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
-      <c r="E968" t="inlineStr"/>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F968" t="inlineStr"/>
       <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
@@ -32464,137 +31992,145 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" t="inlineStr"/>
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
       <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="970">
-      <c r="A970" t="inlineStr"/>
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="971">
-      <c r="A971" t="inlineStr"/>
-      <c r="B971" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C971" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
-      <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H971" t="inlineStr">
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="inlineStr"/>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="972">
-      <c r="A972" t="inlineStr"/>
-      <c r="B972" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C972" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="973">
-      <c r="A973" t="inlineStr"/>
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
         <is>
           <t>3</t>
@@ -32604,139 +32140,163 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B974" t="inlineStr"/>
-      <c r="C974" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr"/>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
-      <c r="H974" t="inlineStr"/>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
       <c r="E975" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
       <c r="G976" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
       <c r="G977" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
       <c r="E978" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
           <t>3</t>
@@ -32746,23 +32306,31 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr"/>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32772,23 +32340,27 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr"/>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32798,159 +32370,123 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E981" t="inlineStr"/>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E983" t="inlineStr"/>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
       <c r="H984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A985" t="inlineStr"/>
       <c r="B985" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E985" t="inlineStr"/>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G985" t="inlineStr"/>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -32960,125 +32496,105 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr"/>
+      <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E986" t="inlineStr"/>
       <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr"/>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
       <c r="E987" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
       <c r="H988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
       <c r="E989" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr"/>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H989" t="inlineStr">
         <is>
           <t>3</t>
@@ -33088,7 +32604,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -33098,47 +32614,55 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
       <c r="E991" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>2</t>
@@ -33148,57 +32672,65 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
       <c r="E992" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
       <c r="E993" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H993" t="inlineStr">
         <is>
           <t>3</t>
@@ -33218,7 +32750,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
@@ -33234,12 +32766,12 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -33250,11 +32782,15 @@
       <c r="D995" t="inlineStr"/>
       <c r="E995" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H995" t="inlineStr">
         <is>
           <t>3</t>
@@ -33264,12 +32800,12 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -33280,7 +32816,7 @@
       <c r="D996" t="inlineStr"/>
       <c r="E996" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F996" t="inlineStr"/>
@@ -33294,167 +32830,131 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G997" t="inlineStr"/>
       <c r="H997" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G998" t="inlineStr"/>
       <c r="H998" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D999" t="inlineStr"/>
       <c r="E999" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G999" t="inlineStr"/>
       <c r="H999" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1000" t="inlineStr"/>
       <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1000" t="inlineStr"/>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1001" t="inlineStr"/>
       <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1001" t="inlineStr"/>
       <c r="H1001" t="inlineStr">
         <is>
           <t>3</t>
@@ -33464,27 +32964,23 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1002" t="inlineStr"/>
       <c r="E1002" t="inlineStr"/>
       <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1002" t="inlineStr"/>
       <c r="H1002" t="inlineStr">
         <is>
           <t>3</t>
@@ -33494,7 +32990,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -33504,7 +33000,7 @@
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1003" t="inlineStr"/>
@@ -33520,7 +33016,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -33530,7 +33026,7 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1004" t="inlineStr"/>
@@ -33546,23 +33042,31 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1005" t="inlineStr">
         <is>
           <t>3</t>
@@ -33572,23 +33076,31 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr"/>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1006" t="inlineStr">
         <is>
           <t>3</t>
@@ -33596,568 +33108,34 @@
       </c>
     </row>
     <row r="1007">
-      <c r="A1007" t="inlineStr"/>
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr"/>
-      <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr"/>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr"/>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B1019" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B1020" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1020" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1020" t="inlineStr"/>
-      <c r="E1020" t="inlineStr"/>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1021" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D1021" t="inlineStr"/>
-      <c r="E1021" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1022" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1022" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1022" t="inlineStr"/>
-      <c r="E1022" t="inlineStr"/>
-      <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1023" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1023" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1023" t="inlineStr"/>
-      <c r="E1023" t="inlineStr"/>
-      <c r="F1023" t="inlineStr"/>
-      <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1024" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1024" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1024" t="inlineStr"/>
-      <c r="E1024" t="inlineStr"/>
-      <c r="F1024" t="inlineStr"/>
-      <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1025" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1025" t="inlineStr"/>
-      <c r="E1025" t="inlineStr"/>
-      <c r="F1025" t="inlineStr"/>
-      <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1026" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1026" t="inlineStr"/>
-      <c r="E1026" t="inlineStr"/>
-      <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1007"/>
+  <dimension ref="A1:H986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29683,10 +29683,8 @@
         </is>
       </c>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29717,10 +29715,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -29755,10 +29751,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H895" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -29793,10 +29787,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29831,10 +29823,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29869,10 +29859,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29895,10 +29883,8 @@
       <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29929,10 +29915,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -29955,10 +29939,8 @@
       <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29985,10 +29967,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30015,10 +29995,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30045,10 +30023,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -30075,10 +30051,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -30105,10 +30079,8 @@
       </c>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -30143,10 +30115,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H907" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="908">
@@ -30181,10 +30151,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H908" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="909">
@@ -30215,10 +30183,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H909" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="910">
@@ -30249,10 +30215,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H910" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="911">
@@ -30287,10 +30251,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H911" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="912">
@@ -30325,10 +30287,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -30359,10 +30319,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -30393,10 +30351,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -30427,10 +30383,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -30457,10 +30411,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30487,10 +30439,8 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30513,10 +30463,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30557,10 +30505,8 @@
       </c>
       <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr"/>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H920" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="921">
@@ -30587,10 +30533,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30617,100 +30561,94 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr"/>
-      <c r="C923" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr"/>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr"/>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A924" t="inlineStr"/>
       <c r="B924" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A925" t="inlineStr"/>
       <c r="B925" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A926" t="inlineStr"/>
       <c r="B926" t="inlineStr">
         <is>
           <t>CN</t>
@@ -30718,77 +30656,73 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A927" t="inlineStr"/>
       <c r="B927" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A928" t="inlineStr"/>
       <c r="B928" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -30796,35 +30730,27 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A929" t="inlineStr"/>
       <c r="B929" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
@@ -30836,61 +30762,45 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr"/>
+      <c r="C930" t="inlineStr"/>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E930" t="inlineStr"/>
       <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G930" t="inlineStr"/>
+      <c r="H930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -30900,12 +30810,12 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -30914,32 +30824,28 @@
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -30950,13 +30856,13 @@
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H933" t="inlineStr">
@@ -30968,31 +30874,27 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -31002,25 +30904,21 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
@@ -31032,17 +30930,17 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
@@ -31058,139 +30956,159 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr"/>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr"/>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31200,23 +31118,31 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr"/>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H942" t="inlineStr">
         <is>
           <t>3</t>
@@ -31226,57 +31152,61 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr"/>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
           <t>3</t>
@@ -31286,31 +31216,27 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G945" t="inlineStr"/>
       <c r="H945" t="inlineStr">
         <is>
           <t>3</t>
@@ -31318,19 +31244,27 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" t="inlineStr"/>
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr"/>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
@@ -31340,137 +31274,145 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr"/>
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr"/>
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr"/>
+      <c r="H949" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="949">
-      <c r="A949" t="inlineStr"/>
-      <c r="B949" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C949" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
-      <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H949" t="inlineStr">
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr"/>
+      <c r="E950" t="inlineStr"/>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+      <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="950">
-      <c r="A950" t="inlineStr"/>
-      <c r="B950" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C950" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="951">
-      <c r="A951" t="inlineStr"/>
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G951" t="inlineStr"/>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -31480,139 +31422,163 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr"/>
-      <c r="C952" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr"/>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31622,23 +31588,31 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr"/>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31648,23 +31622,27 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H958" t="inlineStr">
         <is>
           <t>3</t>
@@ -31674,159 +31652,123 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E960" t="inlineStr"/>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E961" t="inlineStr"/>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E963" t="inlineStr"/>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31836,125 +31778,105 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr"/>
       <c r="H966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr"/>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H967" t="inlineStr">
         <is>
           <t>3</t>
@@ -31964,7 +31886,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -31974,47 +31896,55 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>2</t>
@@ -32024,57 +31954,65 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
       <c r="E971" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr"/>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H971" t="inlineStr">
         <is>
           <t>3</t>
@@ -32094,7 +32032,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
@@ -32110,12 +32048,12 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -32126,11 +32064,15 @@
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
           <t>3</t>
@@ -32140,12 +32082,12 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -32156,7 +32098,7 @@
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
@@ -32170,167 +32112,131 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E976" t="inlineStr"/>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G976" t="inlineStr"/>
       <c r="H976" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G977" t="inlineStr"/>
       <c r="H977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E978" t="inlineStr"/>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E979" t="inlineStr"/>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32340,27 +32246,23 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr"/>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32370,7 +32272,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -32380,7 +32282,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
@@ -32396,7 +32298,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -32406,7 +32308,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
@@ -32422,23 +32324,31 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr"/>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H983" t="inlineStr">
         <is>
           <t>3</t>
@@ -32448,23 +32358,31 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H984" t="inlineStr">
         <is>
           <t>3</t>
@@ -32472,21 +32390,33 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr"/>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -32496,646 +32426,28 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr"/>
-      <c r="C986" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr"/>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr"/>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr"/>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr"/>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr"/>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr"/>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr"/>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1007" t="inlineStr">
+      <c r="H986" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -30470,99 +30470,113 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr"/>
-      <c r="C919" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr"/>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E920" t="inlineStr"/>
       <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr"/>
-      <c r="H920" t="n">
-        <v>2</v>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E921" t="inlineStr"/>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="n">
-        <v>3</v>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="n">
-        <v>3</v>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="923">

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H986"/>
+  <dimension ref="A1:H1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27388,145 +27388,189 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr"/>
-      <c r="C822" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D822" t="inlineStr"/>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr"/>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>£-18.0B</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>£-17.0B</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D823" t="inlineStr"/>
-      <c r="E823" t="inlineStr"/>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>£-7.28B</t>
+        </is>
+      </c>
       <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr"/>
-      <c r="H823" t="n">
-        <v>3</v>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>£-6.8B</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D824" t="inlineStr"/>
       <c r="E824" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F824" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G824" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H824" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D825" t="inlineStr"/>
       <c r="E825" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F825" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H825" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D826" t="inlineStr"/>
       <c r="E826" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F826" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>£-3.72B</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H826" t="n">
-        <v>3</v>
+          <t>£-3.9B</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -27536,529 +27580,537 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D827" t="inlineStr"/>
       <c r="E827" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="F827" t="inlineStr">
-        <is>
-          <t>28%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr"/>
       <c r="G827" t="inlineStr">
         <is>
-          <t>26.0%</t>
-        </is>
-      </c>
-      <c r="H827" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D828" t="inlineStr"/>
       <c r="E828" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H828" t="n">
-        <v>1</v>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D829" t="inlineStr"/>
       <c r="E829" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H829" t="n">
-        <v>2</v>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D830" t="inlineStr"/>
       <c r="E830" t="inlineStr">
         <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F830" t="inlineStr"/>
-      <c r="G830" t="inlineStr"/>
-      <c r="H830" t="n">
-        <v>2</v>
+          <t>€5.153B</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>€4.5B</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>€3.2B</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D831" t="inlineStr"/>
       <c r="E831" t="inlineStr">
         <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-      <c r="H831" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D832" t="inlineStr"/>
       <c r="E832" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H832" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D833" t="inlineStr"/>
       <c r="E833" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H833" t="n">
-        <v>2</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D834" t="inlineStr"/>
       <c r="E834" t="inlineStr">
         <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr"/>
-      <c r="H834" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>BoE Credit Conditions Survey</t>
         </is>
       </c>
       <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
+      <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="n">
-        <v>3</v>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>12-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D836" t="inlineStr"/>
       <c r="E836" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>3.187%</t>
         </is>
       </c>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="n">
-        <v>3</v>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>25-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D837" t="inlineStr"/>
-      <c r="E837" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F837" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H837" t="n">
-        <v>2</v>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>5-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D838" t="inlineStr"/>
       <c r="E838" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H838" t="n">
-        <v>2</v>
+          <t>2.372%</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D839" t="inlineStr"/>
       <c r="E839" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>€6.8B</t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>€7.2B</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H839" t="n">
-        <v>3</v>
+          <t>€1.8B</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D840" t="inlineStr"/>
       <c r="E840" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H840" t="n">
-        <v>3</v>
+          <t>$92.59B</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D841" t="inlineStr"/>
       <c r="E841" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H841" t="n">
-        <v>1</v>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>ECB Monetary Policy Meeting Accounts</t>
         </is>
       </c>
       <c r="D842" t="inlineStr"/>
-      <c r="E842" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E842" t="inlineStr"/>
       <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H842" t="n">
-        <v>1</v>
+      <c r="G842" t="inlineStr"/>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -28068,158 +28120,162 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D843" t="inlineStr"/>
       <c r="E843" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F843" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H843" t="n">
-        <v>2</v>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>£-18.0B</t>
+          <t>250k</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
         <is>
-          <t>£-17.0B</t>
-        </is>
-      </c>
-      <c r="H844" t="n">
-        <v>2</v>
+          <t>240.0K</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D845" t="inlineStr"/>
       <c r="E845" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
-      <c r="F845" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t>£-6.8B</t>
-        </is>
-      </c>
-      <c r="H845" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F846" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H846" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D847" t="inlineStr"/>
       <c r="E847" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -28227,622 +28283,658 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H847" t="n">
-        <v>2</v>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D848" t="inlineStr"/>
       <c r="E848" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
-      <c r="F848" t="inlineStr"/>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
       <c r="G848" t="inlineStr">
         <is>
-          <t>£-3.9B</t>
-        </is>
-      </c>
-      <c r="H848" t="n">
-        <v>3</v>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D849" t="inlineStr"/>
       <c r="E849" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F849" t="inlineStr"/>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="G849" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H849" t="n">
-        <v>3</v>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D850" t="inlineStr"/>
       <c r="E850" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H850" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>1867K</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr"/>
       <c r="G851" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="H851" t="n">
-        <v>3</v>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>€5.153B</t>
-        </is>
-      </c>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>€4.5B</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr">
         <is>
-          <t>€3.2B</t>
-        </is>
-      </c>
-      <c r="H852" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D853" t="inlineStr"/>
       <c r="E853" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr"/>
       <c r="G853" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H853" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D854" t="inlineStr"/>
       <c r="E854" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="F854" t="inlineStr"/>
       <c r="G854" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H854" t="n">
-        <v>2</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D855" t="inlineStr"/>
       <c r="E855" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F855" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H855" t="n">
-        <v>3</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F856" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H856" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>BoE Credit Conditions Survey</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
       <c r="F857" t="inlineStr"/>
       <c r="G857" t="inlineStr"/>
-      <c r="H857" t="n">
-        <v>3</v>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>12-Year Obligacion Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
       <c r="E858" t="inlineStr">
         <is>
-          <t>3.187%</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F858" t="inlineStr"/>
       <c r="G858" t="inlineStr"/>
-      <c r="H858" t="n">
-        <v>3</v>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>25-Year Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D859" t="inlineStr"/>
-      <c r="E859" t="inlineStr"/>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F859" t="inlineStr"/>
       <c r="G859" t="inlineStr"/>
-      <c r="H859" t="n">
-        <v>3</v>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>5-Year Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D860" t="inlineStr"/>
       <c r="E860" t="inlineStr">
         <is>
-          <t>2.372%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F860" t="inlineStr"/>
-      <c r="G860" t="inlineStr"/>
-      <c r="H860" t="n">
-        <v>3</v>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr">
         <is>
-          <t>€6.8B</t>
-        </is>
-      </c>
-      <c r="F861" t="inlineStr">
-        <is>
-          <t>€7.2B</t>
-        </is>
-      </c>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr">
         <is>
-          <t>€1.8B</t>
-        </is>
-      </c>
-      <c r="H861" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
       <c r="E862" t="inlineStr">
         <is>
-          <t>$92.59B</t>
-        </is>
-      </c>
-      <c r="F862" t="inlineStr"/>
-      <c r="G862" t="inlineStr"/>
-      <c r="H862" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F863" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G863" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H863" t="n">
-        <v>3</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>ECB Monetary Policy Meeting Accounts</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
-      <c r="E864" t="inlineStr"/>
-      <c r="F864" t="inlineStr"/>
-      <c r="G864" t="inlineStr"/>
-      <c r="H864" t="n">
-        <v>2</v>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="F865" t="inlineStr"/>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H865" t="n">
-        <v>3</v>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>262.4K</t>
-        </is>
-      </c>
-      <c r="F866" t="inlineStr">
-        <is>
-          <t>250k</t>
-        </is>
-      </c>
-      <c r="G866" t="inlineStr">
-        <is>
-          <t>240.0K</t>
-        </is>
-      </c>
-      <c r="H866" t="n">
-        <v>2</v>
+          <t>4.245%</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -28852,33 +28944,27 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
       <c r="E867" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F867" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G867" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H867" t="n">
-        <v>1</v>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -28888,29 +28974,27 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="F868" t="inlineStr"/>
-      <c r="G868" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H868" t="n">
-        <v>2</v>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -28920,105 +29004,67 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F869" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G869" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H869" t="n">
-        <v>2</v>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>BoC Gravelle Speech</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
-      <c r="E870" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="F870" t="inlineStr">
-        <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="G870" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H870" t="n">
-        <v>2</v>
+      <c r="E870" t="inlineStr"/>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B871" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C871" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr"/>
+      <c r="C871" t="inlineStr"/>
       <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="F871" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G871" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H871" t="n">
-        <v>2</v>
-      </c>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr"/>
+      <c r="H871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -29028,631 +29074,721 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F872" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G872" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H872" t="n">
-        <v>2</v>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="inlineStr"/>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>¥-331.8B</t>
         </is>
       </c>
       <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H873" t="n">
-        <v>3</v>
+      <c r="G873" t="inlineStr"/>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥-74B</t>
         </is>
       </c>
       <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H874" t="n">
-        <v>3</v>
+      <c r="G874" t="inlineStr"/>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H875" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr">
         <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="F876" t="inlineStr"/>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H876" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="n">
-        <v>3</v>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr"/>
-      <c r="H878" t="n">
-        <v>3</v>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr"/>
-      <c r="H879" t="n">
-        <v>3</v>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr"/>
-      <c r="H880" t="n">
-        <v>3</v>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr"/>
-      <c r="G881" t="inlineStr"/>
-      <c r="H881" t="n">
-        <v>3</v>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F882" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H882" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F883" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H883" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H884" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F885" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H885" t="n">
-        <v>2</v>
+          <t>75.3%</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H886" t="n">
-        <v>3</v>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>0.2402%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="n">
-        <v>3</v>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr"/>
-      <c r="H888" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
-      <c r="H889" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
-      <c r="H890" t="n">
-        <v>3</v>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
-      <c r="H891" t="n">
-        <v>3</v>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>BoC Gravelle Speech</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
-      <c r="E892" t="inlineStr"/>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
-      <c r="H892" t="n">
-        <v>2</v>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>€33.0B</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="893">
@@ -29683,8 +29819,10 @@
         </is>
       </c>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="n">
-        <v>3</v>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="894">
@@ -29715,8 +29853,10 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H894" t="n">
-        <v>2</v>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="895">
@@ -29751,8 +29891,10 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H895" t="n">
-        <v>2</v>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="896">
@@ -29787,8 +29929,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H896" t="n">
-        <v>3</v>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="897">
@@ -29823,8 +29967,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H897" t="n">
-        <v>3</v>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="898">
@@ -29859,8 +30005,10 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H898" t="n">
-        <v>3</v>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="899">
@@ -29883,8 +30031,10 @@
       <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="n">
-        <v>3</v>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="900">
@@ -29915,8 +30065,10 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H900" t="n">
-        <v>3</v>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="901">
@@ -29939,8 +30091,10 @@
       <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="n">
-        <v>3</v>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="902">
@@ -29967,8 +30121,10 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="n">
-        <v>3</v>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="903">
@@ -29995,8 +30151,10 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="n">
-        <v>3</v>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="904">
@@ -30023,8 +30181,10 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="n">
-        <v>3</v>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="905">
@@ -30051,8 +30211,10 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="n">
-        <v>3</v>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="906">
@@ -30079,8 +30241,10 @@
       </c>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="n">
-        <v>3</v>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="907">
@@ -30115,8 +30279,10 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H907" t="n">
-        <v>1</v>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="908">
@@ -30151,8 +30317,10 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H908" t="n">
-        <v>1</v>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="909">
@@ -30183,8 +30351,10 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H909" t="n">
-        <v>2</v>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="910">
@@ -30215,8 +30385,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H910" t="n">
-        <v>2</v>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="911">
@@ -30251,8 +30423,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H911" t="n">
-        <v>2</v>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="912">
@@ -30287,8 +30461,10 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H912" t="n">
-        <v>3</v>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="913">
@@ -30319,8 +30495,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H913" t="n">
-        <v>3</v>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="914">
@@ -30351,8 +30529,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H914" t="n">
-        <v>3</v>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="915">
@@ -30383,8 +30563,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H915" t="n">
-        <v>3</v>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="916">
@@ -30411,8 +30593,10 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="n">
-        <v>3</v>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="917">
@@ -30439,8 +30623,10 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="n">
-        <v>3</v>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="918">
@@ -30463,116 +30649,110 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="n">
-        <v>3</v>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C919" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr"/>
+      <c r="C919" t="inlineStr"/>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr"/>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr"/>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
         <is>
           <t>3</t>
@@ -30582,87 +30762,91 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr"/>
+      <c r="C923" t="inlineStr"/>
       <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E923" t="inlineStr"/>
       <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G923" t="inlineStr"/>
+      <c r="H923" t="inlineStr"/>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr"/>
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr"/>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr"/>
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr"/>
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B926" t="inlineStr">
         <is>
           <t>CN</t>
@@ -30670,73 +30854,77 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr"/>
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr"/>
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -30744,27 +30932,35 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr"/>
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
@@ -30776,45 +30972,61 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B930" t="inlineStr"/>
-      <c r="C930" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Industrial Production YoY FinalNOV</t>
+        </is>
+      </c>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr"/>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr"/>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -30824,12 +31036,12 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -30838,28 +31050,32 @@
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr"/>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -30870,13 +31086,13 @@
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H933" t="inlineStr">
@@ -30888,27 +31104,31 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -30918,21 +31138,25 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr"/>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
@@ -30944,17 +31168,17 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
@@ -30970,159 +31194,139 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E937" t="inlineStr"/>
       <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>$ 10B</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E940" t="inlineStr"/>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G941" t="inlineStr"/>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31132,31 +31336,23 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
       <c r="H942" t="inlineStr">
         <is>
           <t>3</t>
@@ -31166,61 +31362,57 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E943" t="inlineStr"/>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
+      <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H944" t="inlineStr">
         <is>
           <t>3</t>
@@ -31230,27 +31422,31 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H945" t="inlineStr">
         <is>
           <t>3</t>
@@ -31258,27 +31454,19 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A946" t="inlineStr"/>
       <c r="B946" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
@@ -31288,89 +31476,77 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A947" t="inlineStr"/>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A948" t="inlineStr"/>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A949" t="inlineStr"/>
       <c r="B949" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr"/>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -31378,25 +31554,29 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A950" t="inlineStr"/>
       <c r="B950" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr"/>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
@@ -31404,29 +31584,29 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A951" t="inlineStr"/>
       <c r="B951" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -31436,163 +31616,139 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C952" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr"/>
+      <c r="C952" t="inlineStr"/>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>$ 1463M</t>
         </is>
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31602,31 +31758,23 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31636,27 +31784,23 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
         <is>
           <t>3</t>
@@ -31666,123 +31810,159 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr"/>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr"/>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr"/>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr"/>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr"/>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr"/>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31792,105 +31972,125 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr"/>
-      <c r="C964" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Claimant Count ChangeDEC</t>
+        </is>
+      </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr"/>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr"/>
       <c r="H966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
+      <c r="G967" t="inlineStr"/>
       <c r="H967" t="inlineStr">
         <is>
           <t>3</t>
@@ -31900,7 +32100,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -31910,55 +32110,47 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>2</t>
@@ -31968,65 +32160,57 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
       <c r="E971" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
           <t>3</t>
@@ -32046,7 +32230,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
@@ -32062,12 +32246,12 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -32078,15 +32262,11 @@
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
         <is>
           <t>3</t>
@@ -32096,12 +32276,12 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -32112,7 +32292,7 @@
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
@@ -32126,131 +32306,167 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr"/>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32260,23 +32476,27 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr"/>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32286,7 +32506,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -32296,7 +32516,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
@@ -32312,7 +32532,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -32322,7 +32542,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
@@ -32338,31 +32558,23 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E983" t="inlineStr"/>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
           <t>3</t>
@@ -32372,31 +32584,23 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G984" t="inlineStr"/>
       <c r="H984" t="inlineStr">
         <is>
           <t>3</t>
@@ -32404,33 +32608,21 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A985" t="inlineStr"/>
       <c r="B985" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E985" t="inlineStr"/>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G985" t="inlineStr"/>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -32440,28 +32632,702 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr"/>
+      <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E986" t="inlineStr"/>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
+      <c r="H986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>88.4</t>
+        </is>
+      </c>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>£-11.25B</t>
+        </is>
+      </c>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr"/>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>15-Year Bund Auction</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMNOV</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>04:40 PM</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>04:40 PM</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>M3 Money Supply YoYJAN/10</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>9.3%</t>
+        </is>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr"/>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/17</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Raw Materials Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr"/>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Raw Materials Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr"/>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1009"/>
+  <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27417,10 +27417,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="823">
@@ -27451,10 +27449,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -27489,10 +27485,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27527,10 +27521,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="826">
@@ -27561,10 +27553,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27595,10 +27585,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27633,10 +27621,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27671,10 +27657,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27709,10 +27693,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -27747,10 +27729,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -27785,10 +27765,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="833">
@@ -27823,10 +27801,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -27861,10 +27837,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -27887,10 +27861,8 @@
       <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -27917,10 +27889,8 @@
       </c>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -27943,10 +27913,8 @@
       <c r="E837" t="inlineStr"/>
       <c r="F837" t="inlineStr"/>
       <c r="G837" t="inlineStr"/>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -27973,10 +27941,8 @@
       </c>
       <c r="F838" t="inlineStr"/>
       <c r="G838" t="inlineStr"/>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28011,10 +27977,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -28041,10 +28005,8 @@
       </c>
       <c r="F840" t="inlineStr"/>
       <c r="G840" t="inlineStr"/>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -28075,10 +28037,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -28101,10 +28061,8 @@
       <c r="E842" t="inlineStr"/>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28135,10 +28093,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28173,10 +28129,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="845">
@@ -28211,10 +28165,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -28245,10 +28197,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -28283,10 +28233,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -28321,10 +28269,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -28359,10 +28305,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -28397,10 +28341,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28431,10 +28373,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28465,10 +28405,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28499,10 +28437,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28533,10 +28469,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="855">
@@ -28563,10 +28497,8 @@
       </c>
       <c r="F855" t="inlineStr"/>
       <c r="G855" t="inlineStr"/>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28593,10 +28525,8 @@
       </c>
       <c r="F856" t="inlineStr"/>
       <c r="G856" t="inlineStr"/>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -28623,10 +28553,8 @@
       </c>
       <c r="F857" t="inlineStr"/>
       <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28653,10 +28581,8 @@
       </c>
       <c r="F858" t="inlineStr"/>
       <c r="G858" t="inlineStr"/>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28683,10 +28609,8 @@
       </c>
       <c r="F859" t="inlineStr"/>
       <c r="G859" t="inlineStr"/>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -28717,10 +28641,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28751,10 +28673,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -28789,10 +28709,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="863">
@@ -28827,10 +28745,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="864">
@@ -28865,10 +28781,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -28895,10 +28809,8 @@
       </c>
       <c r="F865" t="inlineStr"/>
       <c r="G865" t="inlineStr"/>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -28925,10 +28837,8 @@
       </c>
       <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -28955,10 +28865,8 @@
       </c>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -28985,10 +28893,8 @@
       </c>
       <c r="F868" t="inlineStr"/>
       <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29015,10 +28921,8 @@
       </c>
       <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29041,110 +28945,148 @@
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B871" t="inlineStr"/>
-      <c r="C871" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr"/>
-      <c r="F871" t="inlineStr"/>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>€28B</t>
+        </is>
+      </c>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr"/>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H874" t="inlineStr">
         <is>
           <t>3</t>
@@ -29154,29 +29096,33 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F875" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H875" t="inlineStr">
@@ -29188,33 +29134,33 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H876" t="inlineStr">
@@ -29226,25 +29172,21 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
-      <c r="E877" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
       <c r="H877" t="inlineStr">
@@ -29256,65 +29198,57 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
-      <c r="E879" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
           <t>3</t>
@@ -29324,363 +29258,327 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F880" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G880" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
       <c r="H880" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F881" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G881" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
       <c r="H881" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F882" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F883" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G883" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F884" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G884" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F885" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr"/>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F888" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
       <c r="E889" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H889" t="inlineStr">
@@ -29692,29 +29590,33 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F890" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H890" t="inlineStr">
@@ -29726,29 +29628,29 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
@@ -29760,29 +29662,29 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H892" t="inlineStr">
@@ -29794,31 +29696,31 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F893" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G893" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H893" t="inlineStr">
         <is>
           <t>3</t>
@@ -29828,107 +29730,83 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G895" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="inlineStr"/>
       <c r="H895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A896" t="inlineStr"/>
       <c r="B896" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G896" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr">
         <is>
           <t>3</t>
@@ -29938,97 +29816,69 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B897" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C897" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr"/>
+      <c r="C897" t="inlineStr"/>
       <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F897" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G897" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E897" t="inlineStr"/>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F898" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="inlineStr"/>
       <c r="H898" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr"/>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
@@ -30040,31 +29890,27 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
         <is>
           <t>3</t>
@@ -30074,169 +29920,165 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B901" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C901" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr"/>
+      <c r="C901" t="inlineStr"/>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
@@ -30250,139 +30092,131 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30394,71 +30228,63 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F911" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F912" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
@@ -30470,31 +30296,27 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
           <t>3</t>
@@ -30504,31 +30326,23 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
           <t>3</t>
@@ -30538,31 +30352,23 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E915" t="inlineStr"/>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
           <t>3</t>
@@ -30572,23 +30378,23 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F916" t="inlineStr"/>
@@ -30602,27 +30408,31 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr"/>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H917" t="inlineStr">
         <is>
           <t>3</t>
@@ -30630,23 +30440,23 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr"/>
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
-      <c r="E918" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
@@ -30658,101 +30468,109 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr"/>
-      <c r="C919" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr"/>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E920" t="inlineStr"/>
       <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr"/>
       <c r="H920" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E921" t="inlineStr"/>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H922" t="inlineStr">
         <is>
           <t>3</t>
@@ -30762,91 +30580,87 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr"/>
-      <c r="C923" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr"/>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr"/>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A924" t="inlineStr"/>
       <c r="B924" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A925" t="inlineStr"/>
       <c r="B925" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A926" t="inlineStr"/>
       <c r="B926" t="inlineStr">
         <is>
           <t>CN</t>
@@ -30854,77 +30668,73 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A927" t="inlineStr"/>
       <c r="B927" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A928" t="inlineStr"/>
       <c r="B928" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -30932,35 +30742,27 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A929" t="inlineStr"/>
       <c r="B929" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
@@ -30972,61 +30774,45 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr"/>
+      <c r="C930" t="inlineStr"/>
       <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E930" t="inlineStr"/>
       <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G930" t="inlineStr"/>
+      <c r="H930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -31036,12 +30822,12 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -31050,32 +30836,28 @@
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -31086,13 +30868,13 @@
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H933" t="inlineStr">
@@ -31104,31 +30886,27 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -31138,25 +30916,21 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
@@ -31168,17 +30942,17 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
@@ -31194,139 +30968,159 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr"/>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr"/>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H941" t="inlineStr">
         <is>
           <t>3</t>
@@ -31336,23 +31130,31 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr"/>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H942" t="inlineStr">
         <is>
           <t>3</t>
@@ -31362,57 +31164,61 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr"/>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
           <t>3</t>
@@ -31422,31 +31228,27 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G945" t="inlineStr"/>
       <c r="H945" t="inlineStr">
         <is>
           <t>3</t>
@@ -31454,19 +31256,27 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" t="inlineStr"/>
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr"/>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
@@ -31476,137 +31286,145 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr"/>
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr"/>
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr"/>
+      <c r="H949" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="949">
-      <c r="A949" t="inlineStr"/>
-      <c r="B949" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C949" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
-      <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H949" t="inlineStr">
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr"/>
+      <c r="E950" t="inlineStr"/>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+      <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="950">
-      <c r="A950" t="inlineStr"/>
-      <c r="B950" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C950" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="951">
-      <c r="A951" t="inlineStr"/>
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G951" t="inlineStr"/>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -31616,139 +31434,163 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr"/>
-      <c r="C952" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr"/>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31758,23 +31600,31 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr"/>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31784,23 +31634,27 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H958" t="inlineStr">
         <is>
           <t>3</t>
@@ -31810,159 +31664,123 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E960" t="inlineStr"/>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E961" t="inlineStr"/>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E963" t="inlineStr"/>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31972,125 +31790,105 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
+      <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr"/>
       <c r="H966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr"/>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H967" t="inlineStr">
         <is>
           <t>3</t>
@@ -32100,7 +31898,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -32110,47 +31908,55 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>2</t>
@@ -32160,57 +31966,65 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
       <c r="E971" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr"/>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H971" t="inlineStr">
         <is>
           <t>3</t>
@@ -32230,7 +32044,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
@@ -32246,12 +32060,12 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -32262,11 +32076,15 @@
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
           <t>3</t>
@@ -32276,12 +32094,12 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -32292,7 +32110,7 @@
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
@@ -32306,167 +32124,131 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E976" t="inlineStr"/>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G976" t="inlineStr"/>
       <c r="H976" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G977" t="inlineStr"/>
       <c r="H977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E978" t="inlineStr"/>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E979" t="inlineStr"/>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32476,27 +32258,23 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr"/>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32506,7 +32284,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -32516,7 +32294,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
@@ -32532,7 +32310,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -32542,7 +32320,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
@@ -32558,23 +32336,31 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr"/>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H983" t="inlineStr">
         <is>
           <t>3</t>
@@ -32584,23 +32370,31 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H984" t="inlineStr">
         <is>
           <t>3</t>
@@ -32608,21 +32402,33 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr"/>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -32632,55 +32438,63 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr"/>
-      <c r="C986" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr"/>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G987" t="inlineStr"/>
       <c r="H987" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -32690,7 +32504,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
@@ -32699,636 +32513,6 @@
       <c r="G988" t="inlineStr"/>
       <c r="H988" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>15-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr"/>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/10</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr"/>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr"/>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr"/>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr"/>
-      <c r="H1009" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>
